--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.8123664324108</v>
+        <v>214.3991682734448</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.2907242806816</v>
+        <v>293.3504006553393</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.07139901608</v>
+        <v>265.3534501367534</v>
       </c>
       <c r="AD2" t="n">
-        <v>177812.3664324108</v>
+        <v>214399.1682734448</v>
       </c>
       <c r="AE2" t="n">
-        <v>243290.7242806816</v>
+        <v>293350.4006553393</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.719822583393759e-06</v>
+        <v>5.032383868075898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.58738425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>220071.39901608</v>
+        <v>265353.4501367534</v>
       </c>
     </row>
     <row r="3">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.3076963058603</v>
+        <v>180.8091572923227</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.4481564918328</v>
+        <v>247.3910657442929</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.6039815565364</v>
+        <v>223.7804096452709</v>
       </c>
       <c r="AD3" t="n">
-        <v>144307.6963058603</v>
+        <v>180809.1572923227</v>
       </c>
       <c r="AE3" t="n">
-        <v>197448.1564918328</v>
+        <v>247391.0657442929</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090024742008547e-06</v>
+        <v>5.717354785780135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>178603.9815565364</v>
+        <v>223780.4096452709</v>
       </c>
     </row>
     <row r="4">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.2051815930874</v>
+        <v>157.681723675015</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.2572060534443</v>
+        <v>215.7470907587471</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.86283410735</v>
+        <v>195.1564912197377</v>
       </c>
       <c r="AD4" t="n">
-        <v>133205.1815930874</v>
+        <v>157681.723675015</v>
       </c>
       <c r="AE4" t="n">
-        <v>182257.2060534443</v>
+        <v>215747.0907587471</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346104430674414e-06</v>
+        <v>6.191169255169531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>164862.83410735</v>
+        <v>195156.4912197377</v>
       </c>
     </row>
     <row r="5">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.2396445284166</v>
+        <v>150.545594409752</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.7266509437592</v>
+        <v>205.9831238742152</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.2418618011121</v>
+        <v>186.3243836308488</v>
       </c>
       <c r="AD5" t="n">
-        <v>126239.6445284166</v>
+        <v>150545.594409752</v>
       </c>
       <c r="AE5" t="n">
-        <v>172726.6509437592</v>
+        <v>205983.1238742151</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529656217361701e-06</v>
+        <v>6.530788117047288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.305555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>156241.8618011121</v>
+        <v>186324.3836308488</v>
       </c>
     </row>
     <row r="6">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.9006019017582</v>
+        <v>145.2065517830936</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.4215372800319</v>
+        <v>198.6780102104878</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.6339379326572</v>
+        <v>179.7164597623938</v>
       </c>
       <c r="AD6" t="n">
-        <v>120900.6019017582</v>
+        <v>145206.5517830936</v>
       </c>
       <c r="AE6" t="n">
-        <v>165421.5372800319</v>
+        <v>198678.0102104878</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.68542577367486e-06</v>
+        <v>6.81900257894412e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>149633.9379326572</v>
+        <v>179716.4597623938</v>
       </c>
     </row>
     <row r="7">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.3384968647312</v>
+        <v>140.7546169966219</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.7605344998767</v>
+        <v>192.5866766301392</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.1356694529156</v>
+        <v>174.2064745097113</v>
       </c>
       <c r="AD7" t="n">
-        <v>104338.4968647312</v>
+        <v>140754.6169966219</v>
       </c>
       <c r="AE7" t="n">
-        <v>142760.5344998767</v>
+        <v>192586.6766301391</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815986500915087e-06</v>
+        <v>7.06057410702083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.981481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>129135.6694529156</v>
+        <v>174206.4745097113</v>
       </c>
     </row>
     <row r="8">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.0738116964773</v>
+        <v>125.4650129238334</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.2936482249294</v>
+        <v>171.6667658080345</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.0950965347336</v>
+        <v>155.2831306151825</v>
       </c>
       <c r="AD8" t="n">
-        <v>101073.8116964774</v>
+        <v>125465.0129238334</v>
       </c>
       <c r="AE8" t="n">
-        <v>138293.6482249294</v>
+        <v>171666.7658080345</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.91424841590562e-06</v>
+        <v>7.242384376140511e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.883101851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>125095.0965347336</v>
+        <v>155283.1306151825</v>
       </c>
     </row>
     <row r="9">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.05438881888159</v>
+        <v>121.4455900462376</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.7940965193833</v>
+        <v>166.1672141024884</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.1204143252937</v>
+        <v>150.3084484057426</v>
       </c>
       <c r="AD9" t="n">
-        <v>97054.38881888159</v>
+        <v>121445.5900462376</v>
       </c>
       <c r="AE9" t="n">
-        <v>132794.0965193833</v>
+        <v>166167.2141024884</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.043181072934888e-06</v>
+        <v>7.480943548074672e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.758680555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>120120.4143252937</v>
+        <v>150308.4484057426</v>
       </c>
     </row>
     <row r="10">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.91756529533463</v>
+        <v>122.3087665226907</v>
       </c>
       <c r="AB10" t="n">
-        <v>133.9751326551242</v>
+        <v>167.3482502382294</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.1887340298346</v>
+        <v>151.3767681102835</v>
       </c>
       <c r="AD10" t="n">
-        <v>97917.56529533463</v>
+        <v>122308.7665226907</v>
       </c>
       <c r="AE10" t="n">
-        <v>133975.1326551242</v>
+        <v>167348.2502382293</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999013103663354e-06</v>
+        <v>7.399221241110668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.799189814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>121188.7340298346</v>
+        <v>151376.7681102835</v>
       </c>
     </row>
     <row r="11">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.27458014787477</v>
+        <v>118.6657813752308</v>
       </c>
       <c r="AB11" t="n">
-        <v>128.9906396592103</v>
+        <v>162.3637572423154</v>
       </c>
       <c r="AC11" t="n">
-        <v>116.6799540496693</v>
+        <v>146.8679881301181</v>
       </c>
       <c r="AD11" t="n">
-        <v>94274.58014787477</v>
+        <v>118665.7813752308</v>
       </c>
       <c r="AE11" t="n">
-        <v>128990.6396592103</v>
+        <v>162363.7572423154</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.108618991736707e-06</v>
+        <v>7.602020830449402e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>116679.9540496693</v>
+        <v>146867.9881301181</v>
       </c>
     </row>
     <row r="12">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.27320723427243</v>
+        <v>118.6644084616285</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.9887611782509</v>
+        <v>162.361878761356</v>
       </c>
       <c r="AC12" t="n">
-        <v>116.6782548482961</v>
+        <v>146.866288928745</v>
       </c>
       <c r="AD12" t="n">
-        <v>94273.20723427243</v>
+        <v>118664.4084616285</v>
       </c>
       <c r="AE12" t="n">
-        <v>128988.7611782509</v>
+        <v>162361.878761356</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.103367152346513e-06</v>
+        <v>7.592303552570212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>116678.2548482961</v>
+        <v>146866.288928745</v>
       </c>
     </row>
   </sheetData>
@@ -9019,28 +9019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.6576979217805</v>
+        <v>401.9209865727316</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.4170881055144</v>
+        <v>549.9260253313132</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.7576326793236</v>
+        <v>497.4418572997161</v>
       </c>
       <c r="AD2" t="n">
-        <v>349657.6979217805</v>
+        <v>401920.9865727316</v>
       </c>
       <c r="AE2" t="n">
-        <v>478417.0881055144</v>
+        <v>549926.0253313133</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755714754094037e-06</v>
+        <v>3.079925203184416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>432757.6326793237</v>
+        <v>497441.8572997161</v>
       </c>
     </row>
     <row r="3">
@@ -9125,28 +9125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.9007936620471</v>
+        <v>294.2475395143506</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.7665113176028</v>
+        <v>402.6024648488059</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.480724974428</v>
+        <v>364.1786506597434</v>
       </c>
       <c r="AD3" t="n">
-        <v>254900.7936620471</v>
+        <v>294247.5395143506</v>
       </c>
       <c r="AE3" t="n">
-        <v>348766.5113176028</v>
+        <v>402602.4648488059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155149565211286e-06</v>
+        <v>3.780625210928003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>315480.724974428</v>
+        <v>364178.6506597433</v>
       </c>
     </row>
     <row r="4">
@@ -9231,28 +9231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.0197344304463</v>
+        <v>250.2811394281746</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.7265101812522</v>
+        <v>342.4456965900607</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.1708572798406</v>
+        <v>309.7631599331611</v>
       </c>
       <c r="AD4" t="n">
-        <v>211019.7344304463</v>
+        <v>250281.1394281746</v>
       </c>
       <c r="AE4" t="n">
-        <v>288726.5101812522</v>
+        <v>342445.6965900607</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442158881453856e-06</v>
+        <v>4.28410518942847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.82175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>261170.8572798406</v>
+        <v>309763.1599331612</v>
       </c>
     </row>
     <row r="5">
@@ -9337,28 +9337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.8267490696866</v>
+        <v>232.9175618668226</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.2023091096906</v>
+        <v>318.6880837436523</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.8917729421179</v>
+        <v>288.2729403127873</v>
       </c>
       <c r="AD5" t="n">
-        <v>193826.7490696866</v>
+        <v>232917.5618668226</v>
       </c>
       <c r="AE5" t="n">
-        <v>265202.3091096907</v>
+        <v>318688.0837436523</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.656396275533227e-06</v>
+        <v>4.659926573825326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.35300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>239891.7729421179</v>
+        <v>288272.9403127873</v>
       </c>
     </row>
     <row r="6">
@@ -9443,28 +9443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.1691056122521</v>
+        <v>208.3434651192887</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.251807032305</v>
+        <v>285.064720441059</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.4635643963225</v>
+        <v>257.8585436130961</v>
       </c>
       <c r="AD6" t="n">
-        <v>182169.1056122521</v>
+        <v>208343.4651192887</v>
       </c>
       <c r="AE6" t="n">
-        <v>249251.807032305</v>
+        <v>285064.720441059</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.829849945510332e-06</v>
+        <v>4.964203979082413e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.023148148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>225463.5643963225</v>
+        <v>257858.5436130961</v>
       </c>
     </row>
     <row r="7">
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.2671212176763</v>
+        <v>200.4431853608329</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.6527898531898</v>
+        <v>274.2552091398007</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.5939972778004</v>
+        <v>248.0806768991821</v>
       </c>
       <c r="AD7" t="n">
-        <v>161267.1212176763</v>
+        <v>200443.1853608329</v>
       </c>
       <c r="AE7" t="n">
-        <v>220652.7898531898</v>
+        <v>274255.2091398007</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.962126795249247e-06</v>
+        <v>5.196247824677904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>199593.9972778003</v>
+        <v>248080.6768991821</v>
       </c>
     </row>
     <row r="8">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.2479056368915</v>
+        <v>180.5075164899487</v>
       </c>
       <c r="AB8" t="n">
-        <v>211.0487894296287</v>
+        <v>246.9783474910319</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.9065891753615</v>
+        <v>223.4070806428474</v>
       </c>
       <c r="AD8" t="n">
-        <v>154247.9056368915</v>
+        <v>180507.5164899487</v>
       </c>
       <c r="AE8" t="n">
-        <v>211048.7894296287</v>
+        <v>246978.3474910319</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.094551056039132e-06</v>
+        <v>5.428550262969078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.594907407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>190906.5891753616</v>
+        <v>223407.0806428474</v>
       </c>
     </row>
     <row r="9">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.431401008092</v>
+        <v>176.5204196605569</v>
       </c>
       <c r="AB9" t="n">
-        <v>205.8268794242067</v>
+        <v>241.5230257107631</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.1830509318586</v>
+        <v>218.4724071166934</v>
       </c>
       <c r="AD9" t="n">
-        <v>150431.401008092</v>
+        <v>176520.4196605569</v>
       </c>
       <c r="AE9" t="n">
-        <v>205826.8794242067</v>
+        <v>241523.0257107631</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.174300434615009e-06</v>
+        <v>5.568448911335156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>186183.0509318586</v>
+        <v>218472.4071166934</v>
       </c>
     </row>
     <row r="10">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.1491274663422</v>
+        <v>172.2381461188072</v>
       </c>
       <c r="AB10" t="n">
-        <v>199.9676838438123</v>
+        <v>235.6638301303687</v>
       </c>
       <c r="AC10" t="n">
-        <v>180.8830487542226</v>
+        <v>213.1724049390574</v>
       </c>
       <c r="AD10" t="n">
-        <v>146149.1274663422</v>
+        <v>172238.1461188071</v>
       </c>
       <c r="AE10" t="n">
-        <v>199967.6838438123</v>
+        <v>235663.8301303687</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.265203916047769e-06</v>
+        <v>5.727914407008134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.354745370370371</v>
       </c>
       <c r="AH10" t="n">
-        <v>180883.0487542225</v>
+        <v>213172.4049390574</v>
       </c>
     </row>
     <row r="11">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.8275764028435</v>
+        <v>168.9165950553084</v>
       </c>
       <c r="AB11" t="n">
-        <v>195.4229911422446</v>
+        <v>231.1191374288011</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.7720951455748</v>
+        <v>209.0614513304096</v>
       </c>
       <c r="AD11" t="n">
-        <v>142827.5764028435</v>
+        <v>168916.5950553084</v>
       </c>
       <c r="AE11" t="n">
-        <v>195422.9911422446</v>
+        <v>231119.137428801</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.340678374145456e-06</v>
+        <v>5.86031386719932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.256365740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>176772.0951455748</v>
+        <v>209061.4513304096</v>
       </c>
     </row>
     <row r="12">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>140.1965256666119</v>
+        <v>166.2855443190768</v>
       </c>
       <c r="AB12" t="n">
-        <v>191.823071451168</v>
+        <v>227.5192177377244</v>
       </c>
       <c r="AC12" t="n">
-        <v>173.5157467372944</v>
+        <v>205.8051029221292</v>
       </c>
       <c r="AD12" t="n">
-        <v>140196.5256666119</v>
+        <v>166285.5443190768</v>
       </c>
       <c r="AE12" t="n">
-        <v>191823.071451168</v>
+        <v>227519.2177377244</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.40008502768719e-06</v>
+        <v>5.964526723560742e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.181134259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>173515.7467372944</v>
+        <v>205805.1029221292</v>
       </c>
     </row>
     <row r="13">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.3839163824165</v>
+        <v>163.4729350348815</v>
       </c>
       <c r="AB13" t="n">
-        <v>187.9747353449696</v>
+        <v>223.670881631526</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.0346904278967</v>
+        <v>202.3240466127315</v>
       </c>
       <c r="AD13" t="n">
-        <v>137383.9163824165</v>
+        <v>163472.9350348815</v>
       </c>
       <c r="AE13" t="n">
-        <v>187974.7353449696</v>
+        <v>223670.881631526</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.466272589573637e-06</v>
+        <v>6.080634843923715e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>170034.6904278967</v>
+        <v>202324.0466127315</v>
       </c>
     </row>
     <row r="14">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.059795218982</v>
+        <v>160.1488138714469</v>
       </c>
       <c r="AB14" t="n">
-        <v>183.426526119285</v>
+        <v>219.1226724058415</v>
       </c>
       <c r="AC14" t="n">
-        <v>165.9205559072583</v>
+        <v>198.2099120920931</v>
       </c>
       <c r="AD14" t="n">
-        <v>134059.795218982</v>
+        <v>160148.8138714469</v>
       </c>
       <c r="AE14" t="n">
-        <v>183426.526119285</v>
+        <v>219122.6724058415</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534671317224666e-06</v>
+        <v>6.200621854721977e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>165920.5559072583</v>
+        <v>198209.9120920931</v>
       </c>
     </row>
     <row r="15">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.6527006992287</v>
+        <v>160.7417193516937</v>
       </c>
       <c r="AB15" t="n">
-        <v>184.237765554502</v>
+        <v>219.9339118410584</v>
       </c>
       <c r="AC15" t="n">
-        <v>166.65437178936</v>
+        <v>198.9437279741949</v>
       </c>
       <c r="AD15" t="n">
-        <v>134652.7006992287</v>
+        <v>160741.7193516937</v>
       </c>
       <c r="AE15" t="n">
-        <v>184237.765554502</v>
+        <v>219933.9118410584</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529610204474625e-06</v>
+        <v>6.191743505503427e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>166654.37178936</v>
+        <v>198943.7279741949</v>
       </c>
     </row>
     <row r="16">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>133.7242067846904</v>
+        <v>159.8132254371553</v>
       </c>
       <c r="AB16" t="n">
-        <v>182.9673592183706</v>
+        <v>218.6635055049271</v>
       </c>
       <c r="AC16" t="n">
-        <v>165.5052112509222</v>
+        <v>197.794567435757</v>
       </c>
       <c r="AD16" t="n">
-        <v>133724.2067846904</v>
+        <v>159813.2254371553</v>
       </c>
       <c r="AE16" t="n">
-        <v>182967.3592183706</v>
+        <v>218663.5055049271</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.54646420130243e-06</v>
+        <v>6.22130927037685e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>165505.2112509222</v>
+        <v>197794.567435757</v>
       </c>
     </row>
     <row r="17">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>118.3080680538724</v>
+        <v>144.4823380523579</v>
       </c>
       <c r="AB17" t="n">
-        <v>161.8743180948352</v>
+        <v>197.6871090340408</v>
       </c>
       <c r="AC17" t="n">
-        <v>146.4252603679411</v>
+        <v>178.8201288034881</v>
       </c>
       <c r="AD17" t="n">
-        <v>118308.0680538724</v>
+        <v>144482.3380523579</v>
       </c>
       <c r="AE17" t="n">
-        <v>161874.3180948352</v>
+        <v>197687.1090340408</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.597271876870794e-06</v>
+        <v>6.31043755282326e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.952546296296296</v>
       </c>
       <c r="AH17" t="n">
-        <v>146425.2603679411</v>
+        <v>178820.1288034881</v>
       </c>
     </row>
     <row r="18">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>116.0811811705375</v>
+        <v>142.255451169023</v>
       </c>
       <c r="AB18" t="n">
-        <v>158.8273932177423</v>
+        <v>194.640184156948</v>
       </c>
       <c r="AC18" t="n">
-        <v>143.6691297247311</v>
+        <v>176.0639981602781</v>
       </c>
       <c r="AD18" t="n">
-        <v>116081.1811705375</v>
+        <v>142255.4511690231</v>
       </c>
       <c r="AE18" t="n">
-        <v>158827.3932177423</v>
+        <v>194640.184156948</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.650683814339664e-06</v>
+        <v>6.404134306226788e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.894675925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>143669.1297247311</v>
+        <v>176063.9981602781</v>
       </c>
     </row>
     <row r="19">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>114.9612989844388</v>
+        <v>141.1355689829242</v>
       </c>
       <c r="AB19" t="n">
-        <v>157.2951210050076</v>
+        <v>193.1079119442132</v>
       </c>
       <c r="AC19" t="n">
-        <v>142.2830954214217</v>
+        <v>174.6779638569687</v>
       </c>
       <c r="AD19" t="n">
-        <v>114961.2989844388</v>
+        <v>141135.5689829242</v>
       </c>
       <c r="AE19" t="n">
-        <v>157295.1210050076</v>
+        <v>193107.9119442132</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.670584306220891e-06</v>
+        <v>6.439044320144386e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH19" t="n">
-        <v>142283.0954214217</v>
+        <v>174677.9638569687</v>
       </c>
     </row>
     <row r="20">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>113.5857505884794</v>
+        <v>139.7600205869649</v>
       </c>
       <c r="AB20" t="n">
-        <v>155.4130350047446</v>
+        <v>191.2258259439502</v>
       </c>
       <c r="AC20" t="n">
-        <v>140.580633067499</v>
+        <v>172.975501503046</v>
       </c>
       <c r="AD20" t="n">
-        <v>113585.7505884794</v>
+        <v>139760.0205869649</v>
       </c>
       <c r="AE20" t="n">
-        <v>155413.0350047446</v>
+        <v>191225.8259439502</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.696676062242942e-06</v>
+        <v>6.484815227280793e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>140580.6330674989</v>
+        <v>172975.501503046</v>
       </c>
     </row>
     <row r="21">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>112.1114977896196</v>
+        <v>138.2857677881051</v>
       </c>
       <c r="AB21" t="n">
-        <v>153.3958972859024</v>
+        <v>189.208688225108</v>
       </c>
       <c r="AC21" t="n">
-        <v>138.7560081414718</v>
+        <v>171.1508765770188</v>
       </c>
       <c r="AD21" t="n">
-        <v>112111.4977896196</v>
+        <v>138285.7677881051</v>
       </c>
       <c r="AE21" t="n">
-        <v>153395.8972859024</v>
+        <v>189208.688225108</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.722964366332957e-06</v>
+        <v>6.530930924678112e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="AH21" t="n">
-        <v>138756.0081414718</v>
+        <v>171150.8765770188</v>
       </c>
     </row>
     <row r="22">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>110.874966178392</v>
+        <v>137.0492361768775</v>
       </c>
       <c r="AB22" t="n">
-        <v>151.704020183497</v>
+        <v>187.5168111227027</v>
       </c>
       <c r="AC22" t="n">
-        <v>137.225601415155</v>
+        <v>169.6204698507021</v>
       </c>
       <c r="AD22" t="n">
-        <v>110874.966178392</v>
+        <v>137049.2361768775</v>
       </c>
       <c r="AE22" t="n">
-        <v>151704.020183497</v>
+        <v>187516.8111227027</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.745419983097698e-06</v>
+        <v>6.5703232119876e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.796296296296296</v>
       </c>
       <c r="AH22" t="n">
-        <v>137225.601415155</v>
+        <v>169620.4698507021</v>
       </c>
     </row>
     <row r="23">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>110.0085770915409</v>
+        <v>136.1828470900264</v>
       </c>
       <c r="AB23" t="n">
-        <v>150.5185884124791</v>
+        <v>186.3313793516848</v>
       </c>
       <c r="AC23" t="n">
-        <v>136.1533055885988</v>
+        <v>168.5481740241458</v>
       </c>
       <c r="AD23" t="n">
-        <v>110008.5770915409</v>
+        <v>136182.8470900264</v>
       </c>
       <c r="AE23" t="n">
-        <v>150518.5884124791</v>
+        <v>186331.3793516848</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.764878241826008e-06</v>
+        <v>6.60445744781814e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>136153.3055885988</v>
+        <v>168548.1740241458</v>
       </c>
     </row>
     <row r="24">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>109.7659512884919</v>
+        <v>135.9402212869774</v>
       </c>
       <c r="AB24" t="n">
-        <v>150.1866170848525</v>
+        <v>185.9994080240582</v>
       </c>
       <c r="AC24" t="n">
-        <v>135.8530171385561</v>
+        <v>168.2478855741031</v>
       </c>
       <c r="AD24" t="n">
-        <v>109765.9512884919</v>
+        <v>135940.2212869774</v>
       </c>
       <c r="AE24" t="n">
-        <v>150186.6170848525</v>
+        <v>185999.4080240582</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.763993775520176e-06</v>
+        <v>6.602905891644024e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>135853.0171385561</v>
+        <v>168247.8855741031</v>
       </c>
     </row>
     <row r="25">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>109.7870138276023</v>
+        <v>135.9612838260878</v>
       </c>
       <c r="AB25" t="n">
-        <v>150.2154357800771</v>
+        <v>186.0282267192827</v>
       </c>
       <c r="AC25" t="n">
-        <v>135.8790854179557</v>
+        <v>168.2739538535027</v>
       </c>
       <c r="AD25" t="n">
-        <v>109787.0138276023</v>
+        <v>135961.2838260878</v>
       </c>
       <c r="AE25" t="n">
-        <v>150215.4357800771</v>
+        <v>186028.2267192827</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.762568802027446e-06</v>
+        <v>6.600406162252394e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>4</v>
+        <v>3.778935185185186</v>
       </c>
       <c r="AH25" t="n">
-        <v>135879.0854179557</v>
+        <v>168273.9538535027</v>
       </c>
     </row>
     <row r="26">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>109.8584373129939</v>
+        <v>136.0327073114794</v>
       </c>
       <c r="AB26" t="n">
-        <v>150.3131605437716</v>
+        <v>186.1259514829772</v>
       </c>
       <c r="AC26" t="n">
-        <v>135.9674834673608</v>
+        <v>168.3623519029078</v>
       </c>
       <c r="AD26" t="n">
-        <v>109858.4373129939</v>
+        <v>136032.7073114794</v>
       </c>
       <c r="AE26" t="n">
-        <v>150313.1605437716</v>
+        <v>186125.9514829772</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.762224842908511e-06</v>
+        <v>6.599802779295793e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>3.778935185185186</v>
       </c>
       <c r="AH26" t="n">
-        <v>135967.4834673608</v>
+        <v>168362.3519029078</v>
       </c>
     </row>
   </sheetData>
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.15751483342756</v>
+        <v>117.6380937231274</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.3574892638837</v>
+        <v>160.9576296583288</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.5844236218946</v>
+        <v>145.5960593892343</v>
       </c>
       <c r="AD2" t="n">
-        <v>90157.51483342756</v>
+        <v>117638.0937231274</v>
       </c>
       <c r="AE2" t="n">
-        <v>123357.4892638837</v>
+        <v>160957.6296583288</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.595948459177374e-06</v>
+        <v>8.993194201558152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.517939814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>111584.4236218946</v>
+        <v>145596.0593892343</v>
       </c>
     </row>
   </sheetData>
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.93458762555267</v>
+        <v>101.5624815742382</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3700292543581</v>
+        <v>138.962267910275</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.93190716415026</v>
+        <v>125.6999040957236</v>
       </c>
       <c r="AD2" t="n">
-        <v>79934.58762555267</v>
+        <v>101562.4815742382</v>
       </c>
       <c r="AE2" t="n">
-        <v>109370.0292543581</v>
+        <v>138962.267910275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.392808855302775e-06</v>
+        <v>9.046038610404393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>98931.90716415027</v>
+        <v>125699.9040957236</v>
       </c>
     </row>
     <row r="3">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.08439606782072</v>
+        <v>99.71229001650626</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.8385155403798</v>
+        <v>136.4307541962966</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.64199756603141</v>
+        <v>123.4099944976048</v>
       </c>
       <c r="AD3" t="n">
-        <v>78084.39606782072</v>
+        <v>99712.29001650626</v>
       </c>
       <c r="AE3" t="n">
-        <v>106838.5155403798</v>
+        <v>136430.7541962966</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485811325881967e-06</v>
+        <v>9.237557059632339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.793402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>96641.99756603141</v>
+        <v>123409.9944976048</v>
       </c>
     </row>
   </sheetData>
@@ -12560,28 +12560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.0458961306199</v>
+        <v>223.9318693014627</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.9244469683457</v>
+        <v>306.3934627549551</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.4993769419787</v>
+        <v>277.1517006956386</v>
       </c>
       <c r="AD2" t="n">
-        <v>187045.8961306199</v>
+        <v>223931.8693014627</v>
       </c>
       <c r="AE2" t="n">
-        <v>255924.4469683457</v>
+        <v>306393.462754955</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606851503049979e-06</v>
+        <v>4.792233042097918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.784143518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>231499.3769419786</v>
+        <v>277151.7006956385</v>
       </c>
     </row>
     <row r="3">
@@ -12666,28 +12666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.276158136599</v>
+        <v>187.8668964257119</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.4016427981121</v>
+        <v>257.0477757920667</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.0805035556994</v>
+        <v>232.5154968393659</v>
       </c>
       <c r="AD3" t="n">
-        <v>163276.158136599</v>
+        <v>187866.8964257119</v>
       </c>
       <c r="AE3" t="n">
-        <v>223401.6427981121</v>
+        <v>257047.7757920667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981574354505013e-06</v>
+        <v>5.481094386240825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.057870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>202080.5035556994</v>
+        <v>232515.496839366</v>
       </c>
     </row>
     <row r="4">
@@ -12772,28 +12772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.3528464977275</v>
+        <v>175.1534788139986</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.3004682749172</v>
+        <v>239.6527169393289</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.2338972676883</v>
+        <v>216.7805979894095</v>
       </c>
       <c r="AD4" t="n">
-        <v>138352.8464977275</v>
+        <v>175153.4788139986</v>
       </c>
       <c r="AE4" t="n">
-        <v>189300.4682749172</v>
+        <v>239652.7169393289</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.245235398386935e-06</v>
+        <v>5.965788341737203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.64699074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>171233.8972676884</v>
+        <v>216780.5979894095</v>
       </c>
     </row>
     <row r="5">
@@ -12878,28 +12878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.4500329131458</v>
+        <v>154.9554303476871</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.4874900809689</v>
+        <v>212.0168559527259</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.4528945364568</v>
+        <v>191.7822647881845</v>
       </c>
       <c r="AD5" t="n">
-        <v>130450.0329131458</v>
+        <v>154955.4303476871</v>
       </c>
       <c r="AE5" t="n">
-        <v>178487.4900809689</v>
+        <v>212016.8559527259</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.44192580748169e-06</v>
+        <v>6.32736869122195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.380787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>161452.8945364568</v>
+        <v>191782.2647881845</v>
       </c>
     </row>
     <row r="6">
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.0242114264081</v>
+        <v>149.5296088609494</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.063641752468</v>
+        <v>204.593007624225</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.7375678729891</v>
+        <v>185.0669381247169</v>
       </c>
       <c r="AD6" t="n">
-        <v>125024.2114264081</v>
+        <v>149529.6088609494</v>
       </c>
       <c r="AE6" t="n">
-        <v>171063.641752468</v>
+        <v>204593.007624225</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.590720486327883e-06</v>
+        <v>6.600901255551295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.19849537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>154737.5678729891</v>
+        <v>185066.9381247169</v>
       </c>
     </row>
     <row r="7">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.6013201517428</v>
+        <v>145.1067175862841</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.0120467862822</v>
+        <v>198.5414126580392</v>
       </c>
       <c r="AC7" t="n">
-        <v>149.2635286369073</v>
+        <v>179.592898888635</v>
       </c>
       <c r="AD7" t="n">
-        <v>120601.3201517428</v>
+        <v>145106.7175862841</v>
       </c>
       <c r="AE7" t="n">
-        <v>165012.0467862822</v>
+        <v>198541.4126580392</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.717625930457648e-06</v>
+        <v>6.83419435332431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.056712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>149263.5286369073</v>
+        <v>179592.898888635</v>
       </c>
     </row>
     <row r="8">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.9045234809901</v>
+        <v>129.4951722615519</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.5349970875737</v>
+        <v>177.1810076119799</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.8362184182081</v>
+        <v>160.2711009206481</v>
       </c>
       <c r="AD8" t="n">
-        <v>104904.5234809901</v>
+        <v>129495.1722615519</v>
       </c>
       <c r="AE8" t="n">
-        <v>143534.9970875737</v>
+        <v>177181.0076119799</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815449962749872e-06</v>
+        <v>7.014026445529628e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.952546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>129836.2184182081</v>
+        <v>160271.1009206481</v>
       </c>
     </row>
     <row r="9">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.4398457029055</v>
+        <v>126.0304944834673</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.7944721008048</v>
+        <v>172.4404826252111</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.5481224828063</v>
+        <v>155.9830049852463</v>
       </c>
       <c r="AD9" t="n">
-        <v>101439.8457029055</v>
+        <v>126030.4944834673</v>
       </c>
       <c r="AE9" t="n">
-        <v>138794.4721008048</v>
+        <v>172440.4826252111</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.923019916213459e-06</v>
+        <v>7.211774681177884e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.842592592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>125548.1224828063</v>
+        <v>155983.0049852463</v>
       </c>
     </row>
     <row r="10">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.94169158740493</v>
+        <v>122.5323403679668</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.0081433123117</v>
+        <v>167.6541538367179</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.2185941962308</v>
+        <v>151.6534766986708</v>
       </c>
       <c r="AD10" t="n">
-        <v>97941.69158740493</v>
+        <v>122532.3403679668</v>
       </c>
       <c r="AE10" t="n">
-        <v>134008.1433123117</v>
+        <v>167654.1538367179</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.022407465271144e-06</v>
+        <v>7.394481020994369e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>121218.5941962308</v>
+        <v>151653.4766986708</v>
       </c>
     </row>
     <row r="11">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>97.66165730779508</v>
+        <v>122.2523060883569</v>
       </c>
       <c r="AB11" t="n">
-        <v>133.6249880567092</v>
+        <v>167.2709985811154</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.8720067404611</v>
+        <v>151.3068892429011</v>
       </c>
       <c r="AD11" t="n">
-        <v>97661.65730779509</v>
+        <v>122252.3060883569</v>
       </c>
       <c r="AE11" t="n">
-        <v>133624.9880567092</v>
+        <v>167270.9985811154</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.023554044232481e-06</v>
+        <v>7.39658880257589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.747106481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>120872.0067404611</v>
+        <v>151306.8892429011</v>
       </c>
     </row>
     <row r="12">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>95.8252886302151</v>
+        <v>120.4159374107769</v>
       </c>
       <c r="AB12" t="n">
-        <v>131.1123874171772</v>
+        <v>164.7583979415835</v>
       </c>
       <c r="AC12" t="n">
-        <v>118.5992051795082</v>
+        <v>149.0340876819481</v>
       </c>
       <c r="AD12" t="n">
-        <v>95825.2886302151</v>
+        <v>120415.9374107769</v>
       </c>
       <c r="AE12" t="n">
-        <v>131112.3874171772</v>
+        <v>164758.3979415835</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.072544236216866e-06</v>
+        <v>7.486648561059108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>118599.2051795082</v>
+        <v>149034.0876819481</v>
       </c>
     </row>
     <row r="13">
@@ -13726,28 +13726,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>95.88687583272278</v>
+        <v>120.4775246132846</v>
       </c>
       <c r="AB13" t="n">
-        <v>131.1966537446838</v>
+        <v>164.8426642690901</v>
       </c>
       <c r="AC13" t="n">
-        <v>118.6754292469861</v>
+        <v>149.110311749426</v>
       </c>
       <c r="AD13" t="n">
-        <v>95886.87583272278</v>
+        <v>120477.5246132846</v>
       </c>
       <c r="AE13" t="n">
-        <v>131196.6537446838</v>
+        <v>164842.66426909</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.06373642510478e-06</v>
+        <v>7.470456966182869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>118675.4292469861</v>
+        <v>149110.311749426</v>
       </c>
     </row>
   </sheetData>
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3481777197066</v>
+        <v>130.7855410312328</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2467567402861</v>
+        <v>178.9465470897088</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0982943426633</v>
+        <v>161.8681397885734</v>
       </c>
       <c r="AD2" t="n">
-        <v>108348.1777197066</v>
+        <v>130785.5410312328</v>
       </c>
       <c r="AE2" t="n">
-        <v>148246.7567402861</v>
+        <v>178946.5470897089</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.832170068814467e-06</v>
+        <v>7.592234453984926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.273726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>134098.2943426633</v>
+        <v>161868.1397885734</v>
       </c>
     </row>
     <row r="3">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.9783517091402</v>
+        <v>111.500966366687</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.744106256229</v>
+        <v>152.560541258301</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.1250196240926</v>
+        <v>138.0003773207149</v>
       </c>
       <c r="AD3" t="n">
-        <v>88978.3517091402</v>
+        <v>111500.966366687</v>
       </c>
       <c r="AE3" t="n">
-        <v>121744.106256229</v>
+        <v>152560.541258301</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137924104080703e-06</v>
+        <v>8.197989490767879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>110125.0196240926</v>
+        <v>138000.3773207149</v>
       </c>
     </row>
     <row r="4">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.77025290347316</v>
+        <v>106.29286756102</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.6181557052156</v>
+        <v>145.4345907072877</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.6791597923313</v>
+        <v>131.5545174889536</v>
       </c>
       <c r="AD4" t="n">
-        <v>83770.25290347317</v>
+        <v>106292.86756102</v>
       </c>
       <c r="AE4" t="n">
-        <v>114618.1557052156</v>
+        <v>145434.5907072877</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.348589879582541e-06</v>
+        <v>8.615357178088528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>103679.1597923313</v>
+        <v>131554.5174889536</v>
       </c>
     </row>
     <row r="5">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.68046744876024</v>
+        <v>105.2030821063071</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.1270631681371</v>
+        <v>143.9434981702091</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.3303750342295</v>
+        <v>130.2057327308518</v>
       </c>
       <c r="AD5" t="n">
-        <v>82680.46744876025</v>
+        <v>105203.0821063071</v>
       </c>
       <c r="AE5" t="n">
-        <v>113127.0631681371</v>
+        <v>143943.4981702091</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.39443600482609e-06</v>
+        <v>8.706186793007854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.726851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>102330.3750342295</v>
+        <v>130205.7327308518</v>
       </c>
     </row>
     <row r="6">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.73816925783537</v>
+        <v>105.2607839153822</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.2060133289378</v>
+        <v>144.0224483310098</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.4017903024907</v>
+        <v>130.277147999113</v>
       </c>
       <c r="AD6" t="n">
-        <v>82738.16925783537</v>
+        <v>105260.7839153822</v>
       </c>
       <c r="AE6" t="n">
-        <v>113206.0133289378</v>
+        <v>144022.4483310098</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.393473802197521e-06</v>
+        <v>8.704280492447818e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.726851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>102401.7903024907</v>
+        <v>130277.147999113</v>
       </c>
     </row>
   </sheetData>
@@ -14744,28 +14744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6269730528664</v>
+        <v>322.1508712436695</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.0709372698792</v>
+        <v>440.7810343289756</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.0339916778224</v>
+        <v>398.7135110526845</v>
       </c>
       <c r="AD2" t="n">
-        <v>283626.9730528664</v>
+        <v>322150.8712436695</v>
       </c>
       <c r="AE2" t="n">
-        <v>388070.9372698792</v>
+        <v>440781.0343289756</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.01636807834385e-06</v>
+        <v>3.5860633394819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.178819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>351033.9916778224</v>
+        <v>398713.5110526845</v>
       </c>
     </row>
     <row r="3">
@@ -14850,28 +14850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.6121824451027</v>
+        <v>262.0507397813369</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.9560530944947</v>
+        <v>358.5493830315407</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.7560367992642</v>
+        <v>324.3299331422293</v>
       </c>
       <c r="AD3" t="n">
-        <v>223612.1824451027</v>
+        <v>262050.7397813369</v>
       </c>
       <c r="AE3" t="n">
-        <v>305956.0530944947</v>
+        <v>358549.3830315407</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406364990512174e-06</v>
+        <v>4.279663701567912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>276756.0367992641</v>
+        <v>324329.9331422293</v>
       </c>
     </row>
     <row r="4">
@@ -14956,28 +14956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.504858127635</v>
+        <v>225.8580746092943</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.5524190206356</v>
+        <v>309.0289818353097</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.0674162229625</v>
+        <v>279.5356895339393</v>
       </c>
       <c r="AD4" t="n">
-        <v>187504.858127635</v>
+        <v>225858.0746092943</v>
       </c>
       <c r="AE4" t="n">
-        <v>256552.4190206356</v>
+        <v>309028.9818353096</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692809618407996e-06</v>
+        <v>4.789098754582857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>232067.4162229625</v>
+        <v>279535.6895339392</v>
       </c>
     </row>
     <row r="5">
@@ -15062,28 +15062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.7504659784449</v>
+        <v>200.4330946084969</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.1012969980531</v>
+        <v>274.241402527282</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.2818047934061</v>
+        <v>248.0681879703845</v>
       </c>
       <c r="AD5" t="n">
-        <v>174750.4659784449</v>
+        <v>200433.0946084969</v>
       </c>
       <c r="AE5" t="n">
-        <v>239101.2969980531</v>
+        <v>274241.4025272821</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.894161282271196e-06</v>
+        <v>5.147197966665488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>216281.8047934061</v>
+        <v>248068.1879703845</v>
       </c>
     </row>
     <row r="6">
@@ -15168,28 +15168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.5682452536143</v>
+        <v>191.0067130812942</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.7506039918436</v>
+        <v>261.3438114591669</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.8277393302344</v>
+        <v>236.4015248919234</v>
       </c>
       <c r="AD6" t="n">
-        <v>152568.2452536143</v>
+        <v>191006.7130812942</v>
       </c>
       <c r="AE6" t="n">
-        <v>208750.6039918436</v>
+        <v>261343.8114591669</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.066698397467264e-06</v>
+        <v>5.454051179702258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.719328703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>188827.7393302344</v>
+        <v>236401.5248919234</v>
       </c>
     </row>
     <row r="7">
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.5912053110602</v>
+        <v>172.3590852871329</v>
       </c>
       <c r="AB7" t="n">
-        <v>200.5725542540531</v>
+        <v>235.8293044359314</v>
       </c>
       <c r="AC7" t="n">
-        <v>181.4301911814512</v>
+        <v>213.3220866091418</v>
       </c>
       <c r="AD7" t="n">
-        <v>146591.2053110602</v>
+        <v>172359.0852871329</v>
       </c>
       <c r="AE7" t="n">
-        <v>200572.5542540531</v>
+        <v>235829.3044359314</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.190660987045652e-06</v>
+        <v>5.674515738097479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.537037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>181430.1911814512</v>
+        <v>213322.0866091418</v>
       </c>
     </row>
     <row r="8">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.3675025344156</v>
+        <v>166.9647903098961</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.4252536615496</v>
+        <v>228.4485920685811</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.9650189261946</v>
+        <v>206.6457790712342</v>
       </c>
       <c r="AD8" t="n">
-        <v>141367.5025344156</v>
+        <v>166964.7903098961</v>
       </c>
       <c r="AE8" t="n">
-        <v>193425.2536615497</v>
+        <v>228448.5920685811</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.309771126588081e-06</v>
+        <v>5.886350327903378e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.372106481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>174965.0189261946</v>
+        <v>206645.7790712342</v>
       </c>
     </row>
     <row r="9">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.459935643109</v>
+        <v>163.0572234185894</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.078748251182</v>
+        <v>223.1020866582135</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.1287764883233</v>
+        <v>201.8095366333629</v>
       </c>
       <c r="AD9" t="n">
-        <v>137459.935643109</v>
+        <v>163057.2234185894</v>
       </c>
       <c r="AE9" t="n">
-        <v>188078.7482511821</v>
+        <v>223102.0866582135</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.40101719736733e-06</v>
+        <v>6.048629324881943e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.256365740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>170128.7764883233</v>
+        <v>201809.5366333629</v>
       </c>
     </row>
     <row r="10">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.3681534851369</v>
+        <v>159.9654412606174</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.8484355028446</v>
+        <v>218.8717739098759</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.3021988514045</v>
+        <v>197.9829589964442</v>
       </c>
       <c r="AD10" t="n">
-        <v>134368.1534851369</v>
+        <v>159965.4412606174</v>
       </c>
       <c r="AE10" t="n">
-        <v>183848.4355028445</v>
+        <v>218871.7739098759</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.477005564425268e-06</v>
+        <v>6.183772853615737e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.163773148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>166302.1988514045</v>
+        <v>197982.9589964442</v>
       </c>
     </row>
     <row r="11">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.171614413254</v>
+        <v>156.7689021887344</v>
       </c>
       <c r="AB11" t="n">
-        <v>179.4747897233455</v>
+        <v>214.4981281303769</v>
       </c>
       <c r="AC11" t="n">
-        <v>162.3459676866491</v>
+        <v>194.0267278316887</v>
       </c>
       <c r="AD11" t="n">
-        <v>131171.614413254</v>
+        <v>156768.9021887344</v>
       </c>
       <c r="AE11" t="n">
-        <v>179474.7897233455</v>
+        <v>214498.1281303769</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.558496709874499e-06</v>
+        <v>6.328702944667316e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.068287037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>162345.9676866491</v>
+        <v>194026.7278316887</v>
       </c>
     </row>
     <row r="12">
@@ -15804,28 +15804,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.2334865914083</v>
+        <v>153.5866135645167</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.6675400969328</v>
+        <v>210.1439804420585</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.6199713579072</v>
+        <v>190.0881338876574</v>
       </c>
       <c r="AD12" t="n">
-        <v>115233.4865914083</v>
+        <v>153586.6135645167</v>
       </c>
       <c r="AE12" t="n">
-        <v>157667.5400969328</v>
+        <v>210143.9804420585</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.631233435155763e-06</v>
+        <v>6.45806350475878e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.987268518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>142619.9713579072</v>
+        <v>190088.1338876574</v>
       </c>
     </row>
     <row r="13">
@@ -15910,28 +15910,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>112.8605486660359</v>
+        <v>138.5430877875369</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.4207817408071</v>
+        <v>189.5607648004877</v>
       </c>
       <c r="AC13" t="n">
-        <v>139.6830790624351</v>
+        <v>171.469351458187</v>
       </c>
       <c r="AD13" t="n">
-        <v>112860.5486660359</v>
+        <v>138543.0877875369</v>
       </c>
       <c r="AE13" t="n">
-        <v>154420.7817408071</v>
+        <v>189560.7648004877</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.68290952677581e-06</v>
+        <v>6.549968221797628e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>139683.0790624351</v>
+        <v>171469.351458187</v>
       </c>
     </row>
     <row r="14">
@@ -16016,28 +16016,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>113.2137488240988</v>
+        <v>138.8962879455998</v>
       </c>
       <c r="AB14" t="n">
-        <v>154.9040457791597</v>
+        <v>190.0440288388403</v>
       </c>
       <c r="AC14" t="n">
-        <v>140.1202210592328</v>
+        <v>171.9064934549847</v>
       </c>
       <c r="AD14" t="n">
-        <v>113213.7488240988</v>
+        <v>138896.2879455998</v>
       </c>
       <c r="AE14" t="n">
-        <v>154904.0457791597</v>
+        <v>190044.0288388403</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.681108617484114e-06</v>
+        <v>6.546765346857262e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>140120.2210592328</v>
+        <v>171906.4934549847</v>
       </c>
     </row>
     <row r="15">
@@ -16122,28 +16122,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>110.9104161197149</v>
+        <v>136.5929552412159</v>
       </c>
       <c r="AB15" t="n">
-        <v>151.752524357156</v>
+        <v>186.8925074168366</v>
       </c>
       <c r="AC15" t="n">
-        <v>137.2694764185561</v>
+        <v>169.0557488143079</v>
       </c>
       <c r="AD15" t="n">
-        <v>110910.4161197149</v>
+        <v>136592.9552412159</v>
       </c>
       <c r="AE15" t="n">
-        <v>151752.524357156</v>
+        <v>186892.5074168366</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.736886780268577e-06</v>
+        <v>6.645965501260275e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>137269.4764185561</v>
+        <v>169055.7488143079</v>
       </c>
     </row>
     <row r="16">
@@ -16228,28 +16228,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>108.7797690904366</v>
+        <v>134.4623082119377</v>
       </c>
       <c r="AB16" t="n">
-        <v>148.837279094186</v>
+        <v>183.9772621538667</v>
       </c>
       <c r="AC16" t="n">
-        <v>134.6324580719106</v>
+        <v>166.4187304676625</v>
       </c>
       <c r="AD16" t="n">
-        <v>108779.7690904366</v>
+        <v>134462.3082119377</v>
       </c>
       <c r="AE16" t="n">
-        <v>148837.2790941861</v>
+        <v>183977.2621538667</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.786611886822621e-06</v>
+        <v>6.734400437113726e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.822337962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>134632.4580719106</v>
+        <v>166418.7304676625</v>
       </c>
     </row>
     <row r="17">
@@ -16334,28 +16334,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>107.5220860070654</v>
+        <v>133.2046251285664</v>
       </c>
       <c r="AB17" t="n">
-        <v>147.1164616144567</v>
+        <v>182.2564446741373</v>
       </c>
       <c r="AC17" t="n">
-        <v>133.0758729972636</v>
+        <v>164.8621453930155</v>
       </c>
       <c r="AD17" t="n">
-        <v>107522.0860070654</v>
+        <v>133204.6251285664</v>
       </c>
       <c r="AE17" t="n">
-        <v>147116.4616144567</v>
+        <v>182256.4446741373</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.808322848839174e-06</v>
+        <v>6.77301287389481e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>133075.8729972636</v>
+        <v>164862.1453930155</v>
       </c>
     </row>
     <row r="18">
@@ -16440,28 +16440,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>105.6931194992618</v>
+        <v>131.3756586207628</v>
       </c>
       <c r="AB18" t="n">
-        <v>144.6139889501734</v>
+        <v>179.753972009854</v>
       </c>
       <c r="AC18" t="n">
-        <v>130.8122328118162</v>
+        <v>162.5985052075681</v>
       </c>
       <c r="AD18" t="n">
-        <v>105693.1194992618</v>
+        <v>131375.6586207628</v>
       </c>
       <c r="AE18" t="n">
-        <v>144613.9889501734</v>
+        <v>179753.972009854</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.854746288358441e-06</v>
+        <v>6.855575872357587e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH18" t="n">
-        <v>130812.2328118162</v>
+        <v>162598.5052075681</v>
       </c>
     </row>
     <row r="19">
@@ -16546,28 +16546,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>104.6150037381309</v>
+        <v>130.2975428596319</v>
       </c>
       <c r="AB19" t="n">
-        <v>143.1388634026843</v>
+        <v>178.2788464623649</v>
       </c>
       <c r="AC19" t="n">
-        <v>129.4778911762273</v>
+        <v>161.2641635719792</v>
       </c>
       <c r="AD19" t="n">
-        <v>104615.0037381309</v>
+        <v>130297.5428596319</v>
       </c>
       <c r="AE19" t="n">
-        <v>143138.8634026843</v>
+        <v>178278.8464623649</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.875856947277763e-06</v>
+        <v>6.89312068415855e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH19" t="n">
-        <v>129477.8911762273</v>
+        <v>161264.1635719792</v>
       </c>
     </row>
     <row r="20">
@@ -16652,28 +16652,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>104.4805765600684</v>
+        <v>130.1631156815694</v>
       </c>
       <c r="AB20" t="n">
-        <v>142.9549342071508</v>
+        <v>178.0949172668314</v>
       </c>
       <c r="AC20" t="n">
-        <v>129.3115159249692</v>
+        <v>161.0977883207211</v>
       </c>
       <c r="AD20" t="n">
-        <v>104480.5765600684</v>
+        <v>130163.1156815694</v>
       </c>
       <c r="AE20" t="n">
-        <v>142954.9342071508</v>
+        <v>178094.9172668314</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.877757907085663e-06</v>
+        <v>6.896501496595603e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>129311.5159249692</v>
+        <v>161097.7883207211</v>
       </c>
     </row>
     <row r="21">
@@ -16758,28 +16758,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>104.5363807393619</v>
+        <v>130.2189198608629</v>
       </c>
       <c r="AB21" t="n">
-        <v>143.0312879471667</v>
+        <v>178.1712710068473</v>
       </c>
       <c r="AC21" t="n">
-        <v>129.3805825712012</v>
+        <v>161.1668549669531</v>
       </c>
       <c r="AD21" t="n">
-        <v>104536.3807393619</v>
+        <v>130218.9198608629</v>
       </c>
       <c r="AE21" t="n">
-        <v>143031.2879471667</v>
+        <v>178171.2710068473</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.876607326149302e-06</v>
+        <v>6.894455215383702e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>129380.5825712012</v>
+        <v>161166.854966953</v>
       </c>
     </row>
   </sheetData>
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.2731135405168</v>
+        <v>169.4789090840964</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.718397657749</v>
+        <v>231.8885202905326</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.1845716357356</v>
+        <v>209.7574053716534</v>
       </c>
       <c r="AD2" t="n">
-        <v>134273.1135405168</v>
+        <v>169478.9090840964</v>
       </c>
       <c r="AE2" t="n">
-        <v>183718.397657749</v>
+        <v>231888.5202905326</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.21859082881636e-06</v>
+        <v>6.13513085256679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.884259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>166184.5716357356</v>
+        <v>209757.4053716534</v>
       </c>
     </row>
     <row r="3">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.2471948050758</v>
+        <v>144.6893677244894</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.8957609809506</v>
+        <v>197.9703761649555</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.0629023891375</v>
+        <v>179.0763613169964</v>
       </c>
       <c r="AD3" t="n">
-        <v>121247.1948050759</v>
+        <v>144689.3677244894</v>
       </c>
       <c r="AE3" t="n">
-        <v>165895.7609809506</v>
+        <v>197970.3761649555</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561355920119868e-06</v>
+        <v>6.788494016349983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>150062.9023891375</v>
+        <v>179076.3613169964</v>
       </c>
     </row>
     <row r="4">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.1959507947627</v>
+        <v>136.6381237141763</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.8796937302285</v>
+        <v>186.9543089142334</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.0981931356733</v>
+        <v>169.1116520635321</v>
       </c>
       <c r="AD4" t="n">
-        <v>113195.9507947627</v>
+        <v>136638.1237141763</v>
       </c>
       <c r="AE4" t="n">
-        <v>154879.6937302285</v>
+        <v>186954.3089142334</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.814748912010748e-06</v>
+        <v>7.271500165642232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.120370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>140098.1931356733</v>
+        <v>169111.6520635322</v>
       </c>
     </row>
     <row r="5">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.46870957469405</v>
+        <v>119.9961338401282</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.9927443391415</v>
+        <v>164.1840041757957</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.3955420724292</v>
+        <v>148.5145132510003</v>
       </c>
       <c r="AD5" t="n">
-        <v>96468.70957469405</v>
+        <v>119996.1338401282</v>
       </c>
       <c r="AE5" t="n">
-        <v>131992.7443391415</v>
+        <v>164184.0041757957</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.984420077035452e-06</v>
+        <v>7.594919591937195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.94675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>119395.5420724292</v>
+        <v>148514.5132510003</v>
       </c>
     </row>
     <row r="6">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.97016476779896</v>
+        <v>115.4975890332331</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.8376368725606</v>
+        <v>158.0288967092148</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.8278694237092</v>
+        <v>142.9468406022803</v>
       </c>
       <c r="AD6" t="n">
-        <v>91970.16476779897</v>
+        <v>115497.5890332331</v>
       </c>
       <c r="AE6" t="n">
-        <v>125837.6368725606</v>
+        <v>158028.8967092148</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.137303413051947e-06</v>
+        <v>7.886338825236592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.799189814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>113827.8694237092</v>
+        <v>142946.8406022803</v>
       </c>
     </row>
     <row r="7">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.95277357226706</v>
+        <v>112.4801978377012</v>
       </c>
       <c r="AB7" t="n">
-        <v>121.7091091209314</v>
+        <v>153.9003689575855</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.0933625662691</v>
+        <v>139.2123337448401</v>
       </c>
       <c r="AD7" t="n">
-        <v>88952.77357226706</v>
+        <v>112480.1978377012</v>
       </c>
       <c r="AE7" t="n">
-        <v>121709.1091209314</v>
+        <v>153900.3689575855</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.241072841549284e-06</v>
+        <v>8.084139370937321e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>110093.3625662691</v>
+        <v>139212.3337448401</v>
       </c>
     </row>
     <row r="8">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.30598641994845</v>
+        <v>111.8334106853826</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.8241464048942</v>
+        <v>153.0154062415483</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.2928594497972</v>
+        <v>138.4118306283683</v>
       </c>
       <c r="AD8" t="n">
-        <v>88305.98641994846</v>
+        <v>111833.4106853826</v>
       </c>
       <c r="AE8" t="n">
-        <v>120824.1464048942</v>
+        <v>153015.4062415483</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.26264167040449e-06</v>
+        <v>8.125252887504436e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>109292.8594497972</v>
+        <v>138411.8306283682</v>
       </c>
     </row>
     <row r="9">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.28297037305457</v>
+        <v>111.8103946384887</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.7926548341377</v>
+        <v>152.9839146707918</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.264373390355</v>
+        <v>138.383344568926</v>
       </c>
       <c r="AD9" t="n">
-        <v>88282.97037305457</v>
+        <v>111810.3946384887</v>
       </c>
       <c r="AE9" t="n">
-        <v>120792.6548341377</v>
+        <v>152983.9146707918</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265684124852579e-06</v>
+        <v>8.131052275231787e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>109264.373390355</v>
+        <v>138383.344568926</v>
       </c>
     </row>
   </sheetData>
@@ -18094,28 +18094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2829780283919</v>
+        <v>257.6574905693475</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.4008887374204</v>
+        <v>352.5383456430538</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.6356109352142</v>
+        <v>318.8925807256617</v>
       </c>
       <c r="AD2" t="n">
-        <v>220282.9780283919</v>
+        <v>257657.4905693475</v>
       </c>
       <c r="AE2" t="n">
-        <v>301400.8887374204</v>
+        <v>352538.3456430538</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39123285301099e-06</v>
+        <v>4.343283632167746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.215277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>272635.6109352142</v>
+        <v>318892.5807256617</v>
       </c>
     </row>
     <row r="3">
@@ -18200,28 +18200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.9999610038474</v>
+        <v>215.2891326902314</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.5473994494095</v>
+        <v>294.5680892328452</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.3035774669505</v>
+        <v>266.4549242254592</v>
       </c>
       <c r="AD3" t="n">
-        <v>177999.9610038474</v>
+        <v>215289.1326902314</v>
       </c>
       <c r="AE3" t="n">
-        <v>243547.3994494095</v>
+        <v>294568.0892328452</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767736199932211e-06</v>
+        <v>5.027140422643098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>220303.5774669505</v>
+        <v>266454.9242254592</v>
       </c>
     </row>
     <row r="4">
@@ -18306,28 +18306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.1661778948311</v>
+        <v>187.5406009272357</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.4639894598253</v>
+        <v>256.6013238959103</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.8547946763585</v>
+        <v>232.1116536855794</v>
       </c>
       <c r="AD4" t="n">
-        <v>150166.1778948311</v>
+        <v>187540.6009272357</v>
       </c>
       <c r="AE4" t="n">
-        <v>205463.9894598253</v>
+        <v>256601.3238959103</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.034986802119266e-06</v>
+        <v>5.512557459593065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.895833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>185854.7946763585</v>
+        <v>232111.6536855794</v>
       </c>
     </row>
     <row r="5">
@@ -18412,28 +18412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.9846886772243</v>
+        <v>165.0432054564467</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.5332267366996</v>
+        <v>225.8193948977523</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.2535643955752</v>
+        <v>204.2675087882872</v>
       </c>
       <c r="AD5" t="n">
-        <v>139984.6886772243</v>
+        <v>165043.2054564467</v>
       </c>
       <c r="AE5" t="n">
-        <v>191533.2267366996</v>
+        <v>225819.3948977523</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.252259538473532e-06</v>
+        <v>5.907197872104763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.56886574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>173253.5643955752</v>
+        <v>204267.5087882872</v>
       </c>
     </row>
     <row r="6">
@@ -18518,28 +18518,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.7227408307464</v>
+        <v>158.6106654093766</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.9653534355112</v>
+        <v>217.018109821717</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.5033968971637</v>
+        <v>196.3062060072246</v>
       </c>
       <c r="AD6" t="n">
-        <v>133722.7408307464</v>
+        <v>158610.6654093766</v>
       </c>
       <c r="AE6" t="n">
-        <v>182965.3534355111</v>
+        <v>217018.109821717</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406148218879533e-06</v>
+        <v>6.186711507065768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.363425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>165503.3968971637</v>
+        <v>196306.2060072246</v>
       </c>
     </row>
     <row r="7">
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.9181066371661</v>
+        <v>153.8060312157963</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.391440966357</v>
+        <v>210.4441973525629</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.5568894075194</v>
+        <v>190.3596985175804</v>
       </c>
       <c r="AD7" t="n">
-        <v>128918.1066371661</v>
+        <v>153806.0312157963</v>
       </c>
       <c r="AE7" t="n">
-        <v>176391.440966357</v>
+        <v>210444.1973525629</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.53111856581805e-06</v>
+        <v>6.413699715964339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.210069444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>159556.8894075194</v>
+        <v>190359.6985175804</v>
       </c>
     </row>
     <row r="8">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.8238459913714</v>
+        <v>149.7117705700016</v>
       </c>
       <c r="AB8" t="n">
-        <v>170.7894929247518</v>
+        <v>204.8422493109577</v>
       </c>
       <c r="AC8" t="n">
-        <v>154.4895834246198</v>
+        <v>185.2923925346807</v>
       </c>
       <c r="AD8" t="n">
-        <v>124823.8459913714</v>
+        <v>149711.7705700017</v>
       </c>
       <c r="AE8" t="n">
-        <v>170789.4929247518</v>
+        <v>204842.2493109577</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.643915475755158e-06</v>
+        <v>6.618576866289561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>154489.5834246198</v>
+        <v>185292.3925346807</v>
       </c>
     </row>
     <row r="9">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.2354063566868</v>
+        <v>146.5244885345198</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.4607021031668</v>
+        <v>200.4812694170541</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.1963824638941</v>
+        <v>181.3476184411763</v>
       </c>
       <c r="AD9" t="n">
-        <v>109235.4063566868</v>
+        <v>146524.4885345198</v>
       </c>
       <c r="AE9" t="n">
-        <v>149460.7021031668</v>
+        <v>200481.2694170541</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.722914404481603e-06</v>
+        <v>6.762065508001851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.993055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>135196.3824638941</v>
+        <v>181347.6184411763</v>
       </c>
     </row>
     <row r="10">
@@ -18942,28 +18942,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.073767540577</v>
+        <v>131.0469434652278</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.134808393307</v>
+        <v>179.3042094321621</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.283345978272</v>
+        <v>162.1916673390452</v>
       </c>
       <c r="AD10" t="n">
-        <v>106073.767540577</v>
+        <v>131046.9434652278</v>
       </c>
       <c r="AE10" t="n">
-        <v>145134.808393307</v>
+        <v>179304.2094321621</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.814189499635629e-06</v>
+        <v>6.927851799499081e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>131283.345978272</v>
+        <v>162191.6673390452</v>
       </c>
     </row>
     <row r="11">
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.6748341934041</v>
+        <v>127.6480101180549</v>
       </c>
       <c r="AB11" t="n">
-        <v>140.4842378373511</v>
+        <v>174.6536388762061</v>
       </c>
       <c r="AC11" t="n">
-        <v>127.0766193490583</v>
+        <v>157.9849407098314</v>
       </c>
       <c r="AD11" t="n">
-        <v>102674.8341934041</v>
+        <v>127648.0101180549</v>
       </c>
       <c r="AE11" t="n">
-        <v>140484.2378373511</v>
+        <v>174653.6388762062</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.909625136549631e-06</v>
+        <v>7.101195035065687e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>127076.6193490583</v>
+        <v>157984.9407098314</v>
       </c>
     </row>
     <row r="12">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.767583954929</v>
+        <v>128.7407598795798</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.9793862697857</v>
+        <v>176.1487873086408</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.4290729135559</v>
+        <v>159.337394274329</v>
       </c>
       <c r="AD12" t="n">
-        <v>103767.583954929</v>
+        <v>128740.7598795798</v>
       </c>
       <c r="AE12" t="n">
-        <v>141979.3862697858</v>
+        <v>176148.7873086408</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.871050237021958e-06</v>
+        <v>7.031130035113846e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.839699074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>128429.0729135559</v>
+        <v>159337.394274329</v>
       </c>
     </row>
     <row r="13">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>100.4585213251647</v>
+        <v>125.4316972498155</v>
       </c>
       <c r="AB13" t="n">
-        <v>137.4517807942045</v>
+        <v>171.6211818330596</v>
       </c>
       <c r="AC13" t="n">
-        <v>124.3335757500285</v>
+        <v>155.2418971108016</v>
       </c>
       <c r="AD13" t="n">
-        <v>100458.5213251647</v>
+        <v>125431.6972498155</v>
       </c>
       <c r="AE13" t="n">
-        <v>137451.7807942045</v>
+        <v>171621.1818330596</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.96330126172462e-06</v>
+        <v>7.198688943121176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>124333.5757500285</v>
+        <v>155241.8971108016</v>
       </c>
     </row>
     <row r="14">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>99.21508244634973</v>
+        <v>124.1882583710005</v>
       </c>
       <c r="AB14" t="n">
-        <v>135.7504528635589</v>
+        <v>169.919853902414</v>
       </c>
       <c r="AC14" t="n">
-        <v>122.7946201692544</v>
+        <v>153.7029415300275</v>
       </c>
       <c r="AD14" t="n">
-        <v>99215.08244634973</v>
+        <v>124188.2583710005</v>
       </c>
       <c r="AE14" t="n">
-        <v>135750.4528635589</v>
+        <v>169919.853902414</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.984668982368445e-06</v>
+        <v>7.237499915131783e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.729745370370371</v>
       </c>
       <c r="AH14" t="n">
-        <v>122794.6201692544</v>
+        <v>153702.9415300275</v>
       </c>
     </row>
     <row r="15">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>98.51133331626252</v>
+        <v>123.4845092409133</v>
       </c>
       <c r="AB15" t="n">
-        <v>134.7875522565537</v>
+        <v>168.9569532954087</v>
       </c>
       <c r="AC15" t="n">
-        <v>121.923617444742</v>
+        <v>152.8319388055151</v>
       </c>
       <c r="AD15" t="n">
-        <v>98511.33331626252</v>
+        <v>123484.5092409133</v>
       </c>
       <c r="AE15" t="n">
-        <v>134787.5522565537</v>
+        <v>168956.9532954087</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.005831244159923e-06</v>
+        <v>7.27593770471921e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH15" t="n">
-        <v>121923.6174447419</v>
+        <v>152831.9388055151</v>
       </c>
     </row>
     <row r="16">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>98.56172200256675</v>
+        <v>123.5348979272175</v>
       </c>
       <c r="AB16" t="n">
-        <v>134.856496280147</v>
+        <v>169.0258973190021</v>
       </c>
       <c r="AC16" t="n">
-        <v>121.9859815474871</v>
+        <v>152.8943029082603</v>
       </c>
       <c r="AD16" t="n">
-        <v>98561.72200256675</v>
+        <v>123534.8979272175</v>
       </c>
       <c r="AE16" t="n">
-        <v>134856.4962801471</v>
+        <v>169025.8973190021</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.004444396906598e-06</v>
+        <v>7.273418723362753e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>121985.9815474871</v>
+        <v>152894.3029082603</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.48619321842322</v>
+        <v>96.4130782008047</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.283539777216</v>
+        <v>131.9166270391032</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.42630370026303</v>
+        <v>119.3266893006752</v>
       </c>
       <c r="AD2" t="n">
-        <v>75486.19321842323</v>
+        <v>96413.07820080471</v>
       </c>
       <c r="AE2" t="n">
-        <v>103283.539777216</v>
+        <v>131916.6270391032</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.483619155837322e-06</v>
+        <v>9.548935425644268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.912037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>93426.30370026303</v>
+        <v>119326.6893006752</v>
       </c>
     </row>
   </sheetData>
@@ -20172,28 +20172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.43830222641355</v>
+        <v>118.1830086558709</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.900454378004</v>
+        <v>161.7032063092583</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.7436390830158</v>
+        <v>146.2704792510227</v>
       </c>
       <c r="AD2" t="n">
-        <v>85438.30222641355</v>
+        <v>118183.0086558709</v>
       </c>
       <c r="AE2" t="n">
-        <v>116900.454378004</v>
+        <v>161703.2063092584</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.201238849800714e-06</v>
+        <v>8.52996736638652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.993055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>105743.6390830158</v>
+        <v>146270.4792510227</v>
       </c>
     </row>
     <row r="3">
@@ -20278,28 +20278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.08449884295051</v>
+        <v>102.0280909353509</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.5751443956179</v>
+        <v>139.5993351793843</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.11744640420916</v>
+        <v>126.2761705587989</v>
       </c>
       <c r="AD3" t="n">
-        <v>80084.4988429505</v>
+        <v>102028.0909353509</v>
       </c>
       <c r="AE3" t="n">
-        <v>109575.1443956179</v>
+        <v>139599.3351793843</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.43833025661176e-06</v>
+        <v>9.011344892219126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.781828703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>99117.44640420916</v>
+        <v>126276.1705587989</v>
       </c>
     </row>
     <row r="4">
@@ -20384,28 +20384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.82336336514803</v>
+        <v>101.7669554575484</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.2178473144045</v>
+        <v>139.2420380981709</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.79424925495708</v>
+        <v>125.9529734095468</v>
       </c>
       <c r="AD4" t="n">
-        <v>79823.36336514802</v>
+        <v>101766.9554575484</v>
       </c>
       <c r="AE4" t="n">
-        <v>109217.8473144045</v>
+        <v>139242.0380981709</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.452075526527175e-06</v>
+        <v>9.039252542322433e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>98794.24925495707</v>
+        <v>125952.9734095468</v>
       </c>
     </row>
   </sheetData>
@@ -20681,28 +20681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.6238869149208</v>
+        <v>351.1531247140834</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.9586205499734</v>
+        <v>480.4631970163172</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.8327451852209</v>
+        <v>434.6084638274114</v>
       </c>
       <c r="AD2" t="n">
-        <v>299623.8869149208</v>
+        <v>351153.1247140834</v>
       </c>
       <c r="AE2" t="n">
-        <v>409958.6205499734</v>
+        <v>480463.1970163172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.926574498123525e-06</v>
+        <v>3.410133011402674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.468171296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>370832.7451852209</v>
+        <v>434608.4638274114</v>
       </c>
     </row>
     <row r="3">
@@ -20787,28 +20787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.4688907056815</v>
+        <v>272.1585118594798</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.4424361838903</v>
+        <v>372.3792827122882</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.9552984148697</v>
+        <v>336.8399266078324</v>
       </c>
       <c r="AD3" t="n">
-        <v>233468.8907056815</v>
+        <v>272158.5118594798</v>
       </c>
       <c r="AE3" t="n">
-        <v>319442.4361838903</v>
+        <v>372379.2827122882</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319009206469262e-06</v>
+        <v>4.104762030448361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>288955.2984148697</v>
+        <v>336839.9266078324</v>
       </c>
     </row>
     <row r="4">
@@ -20893,28 +20893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.2522159283038</v>
+        <v>234.0270884281194</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.1526957528093</v>
+        <v>320.206186933675</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.6560174214027</v>
+        <v>289.6461578650261</v>
       </c>
       <c r="AD4" t="n">
-        <v>195252.2159283038</v>
+        <v>234027.0884281194</v>
       </c>
       <c r="AE4" t="n">
-        <v>267152.6957528093</v>
+        <v>320206.186933675</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.602260255936596e-06</v>
+        <v>4.606130524240743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.529513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>241656.0174214027</v>
+        <v>289646.157865026</v>
       </c>
     </row>
     <row r="5">
@@ -20999,28 +20999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.1315341035484</v>
+        <v>205.9815386119765</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.4639118027872</v>
+        <v>281.8330283929128</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.9417419746735</v>
+        <v>254.9352797183156</v>
       </c>
       <c r="AD5" t="n">
-        <v>180131.5341035484</v>
+        <v>205981.5386119765</v>
       </c>
       <c r="AE5" t="n">
-        <v>246463.9118027872</v>
+        <v>281833.0283929128</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.822914663087031e-06</v>
+        <v>4.996699837116044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.095486111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>222941.7419746735</v>
+        <v>254935.2797183156</v>
       </c>
     </row>
     <row r="6">
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.6372739815855</v>
+        <v>196.3268056268294</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.6862727272148</v>
+        <v>268.6229967858829</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.1014775757762</v>
+        <v>242.9859949874607</v>
       </c>
       <c r="AD6" t="n">
-        <v>157637.2739815855</v>
+        <v>196326.8056268294</v>
       </c>
       <c r="AE6" t="n">
-        <v>215686.2727272148</v>
+        <v>268622.9967858829</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.990071066160434e-06</v>
+        <v>5.292575012845374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.811921296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>195101.4775757762</v>
+        <v>242985.9949874607</v>
       </c>
     </row>
     <row r="7">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.4933625941869</v>
+        <v>190.1828942394309</v>
       </c>
       <c r="AB7" t="n">
-        <v>207.2799021167396</v>
+        <v>260.2166261754077</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.4973991779469</v>
+        <v>235.3819165896314</v>
       </c>
       <c r="AD7" t="n">
-        <v>151493.3625941869</v>
+        <v>190182.8942394308</v>
       </c>
       <c r="AE7" t="n">
-        <v>207279.9021167396</v>
+        <v>260216.6261754077</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.109795223983383e-06</v>
+        <v>5.504492747276137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.626736111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>187497.3991779469</v>
+        <v>235381.9165896314</v>
       </c>
     </row>
     <row r="8">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.8467600523978</v>
+        <v>171.6114237062542</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.5539714085448</v>
+        <v>234.8063208764727</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.5088204531278</v>
+        <v>212.3967351648312</v>
       </c>
       <c r="AD8" t="n">
-        <v>145846.7600523978</v>
+        <v>171611.4237062542</v>
       </c>
       <c r="AE8" t="n">
-        <v>199553.9714085448</v>
+        <v>234806.3208764727</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.229419943137044e-06</v>
+        <v>5.716234470299566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.456018518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>180508.8204531278</v>
+        <v>212396.7351648312</v>
       </c>
     </row>
     <row r="9">
@@ -21423,28 +21423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.058162969297</v>
+        <v>166.8228266231534</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.0020016214561</v>
+        <v>228.254351089384</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.5821614667695</v>
+        <v>206.4700761784728</v>
       </c>
       <c r="AD9" t="n">
-        <v>141058.162969297</v>
+        <v>166822.8266231534</v>
       </c>
       <c r="AE9" t="n">
-        <v>193002.0016214561</v>
+        <v>228254.3510893841</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.337360618649346e-06</v>
+        <v>5.907294852961188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>174582.1614667695</v>
+        <v>206470.0761784728</v>
       </c>
     </row>
     <row r="10">
@@ -21529,28 +21529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.0967493254235</v>
+        <v>163.8614129792799</v>
       </c>
       <c r="AB10" t="n">
-        <v>188.9500648255611</v>
+        <v>224.2024142934891</v>
       </c>
       <c r="AC10" t="n">
-        <v>170.9169358317444</v>
+        <v>202.8048505434477</v>
       </c>
       <c r="AD10" t="n">
-        <v>138096.7493254235</v>
+        <v>163861.4129792799</v>
       </c>
       <c r="AE10" t="n">
-        <v>188950.0648255611</v>
+        <v>224202.4142934891</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410448040576146e-06</v>
+        <v>6.036663237352061e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH10" t="n">
-        <v>170916.9358317444</v>
+        <v>202804.8505434477</v>
       </c>
     </row>
     <row r="11">
@@ -21635,28 +21635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.3197354419465</v>
+        <v>161.084399095803</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.1504319169839</v>
+        <v>220.4027813849119</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.4799345551423</v>
+        <v>199.3678492668456</v>
       </c>
       <c r="AD11" t="n">
-        <v>135319.7354419465</v>
+        <v>161084.399095803</v>
       </c>
       <c r="AE11" t="n">
-        <v>185150.4319169839</v>
+        <v>220402.7813849119</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.471304506180502e-06</v>
+        <v>6.144382218640788e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH11" t="n">
-        <v>167479.9345551423</v>
+        <v>199367.8492668456</v>
       </c>
     </row>
     <row r="12">
@@ -21741,28 +21741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.7221187810411</v>
+        <v>158.4867824348975</v>
       </c>
       <c r="AB12" t="n">
-        <v>181.5962582027757</v>
+        <v>216.8486076707037</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.2649661919029</v>
+        <v>196.1528809036062</v>
       </c>
       <c r="AD12" t="n">
-        <v>132722.1187810411</v>
+        <v>158486.7824348976</v>
       </c>
       <c r="AE12" t="n">
-        <v>181596.2582027757</v>
+        <v>216848.6076707037</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.534597219182418e-06</v>
+        <v>6.25641347940921e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.071180555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>164264.9661919029</v>
+        <v>196152.8809036062</v>
       </c>
     </row>
     <row r="13">
@@ -21847,28 +21847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>115.8023368872573</v>
+        <v>154.4065276779296</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.4458661676169</v>
+        <v>211.2658231040874</v>
       </c>
       <c r="AC13" t="n">
-        <v>143.324015080793</v>
+        <v>191.1029094605387</v>
       </c>
       <c r="AD13" t="n">
-        <v>115802.3368872573</v>
+        <v>154406.5276779296</v>
       </c>
       <c r="AE13" t="n">
-        <v>158445.8661676169</v>
+        <v>211265.8231040874</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.62598135625824e-06</v>
+        <v>6.418167962749635e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.967013888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>143324.015080793</v>
+        <v>191102.9094605386</v>
       </c>
     </row>
     <row r="14">
@@ -21953,28 +21953,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.7706519908323</v>
+        <v>155.3748427815046</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.770757611375</v>
+        <v>212.5907145478454</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.5224607446559</v>
+        <v>192.3013551244017</v>
       </c>
       <c r="AD14" t="n">
-        <v>116770.6519908323</v>
+        <v>155374.8427815046</v>
       </c>
       <c r="AE14" t="n">
-        <v>159770.757611375</v>
+        <v>212590.7145478454</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608579589132812e-06</v>
+        <v>6.387365966466094e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.987268518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>144522.460744656</v>
+        <v>192301.3551244017</v>
       </c>
     </row>
     <row r="15">
@@ -22059,28 +22059,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>114.3927790571285</v>
+        <v>140.2426940570056</v>
       </c>
       <c r="AB15" t="n">
-        <v>156.517246959133</v>
+        <v>191.8862410797102</v>
       </c>
       <c r="AC15" t="n">
-        <v>141.5794605827321</v>
+        <v>173.5728875451476</v>
       </c>
       <c r="AD15" t="n">
-        <v>114392.7790571285</v>
+        <v>140242.6940570056</v>
       </c>
       <c r="AE15" t="n">
-        <v>156517.246959133</v>
+        <v>191886.2410797102</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.665408788630997e-06</v>
+        <v>6.487956485757773e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>141579.4605827321</v>
+        <v>173572.8875451476</v>
       </c>
     </row>
     <row r="16">
@@ -22165,28 +22165,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>112.3485676762685</v>
+        <v>138.1984826761455</v>
       </c>
       <c r="AB16" t="n">
-        <v>153.7202667636004</v>
+        <v>189.0892608841776</v>
       </c>
       <c r="AC16" t="n">
-        <v>139.0494202514739</v>
+        <v>171.0428472138895</v>
       </c>
       <c r="AD16" t="n">
-        <v>112348.5676762685</v>
+        <v>138198.4826761455</v>
       </c>
       <c r="AE16" t="n">
-        <v>153720.2667636005</v>
+        <v>189089.2608841776</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.71478008793257e-06</v>
+        <v>6.575346149499362e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>139049.4202514739</v>
+        <v>171042.8472138895</v>
       </c>
     </row>
     <row r="17">
@@ -22271,28 +22271,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>111.0111020118975</v>
+        <v>136.8610170117745</v>
       </c>
       <c r="AB17" t="n">
-        <v>151.8902872367883</v>
+        <v>187.2592813573655</v>
       </c>
       <c r="AC17" t="n">
-        <v>137.3940914023077</v>
+        <v>169.3875183647232</v>
       </c>
       <c r="AD17" t="n">
-        <v>111011.1020118975</v>
+        <v>136861.0170117745</v>
       </c>
       <c r="AE17" t="n">
-        <v>151890.2872367883</v>
+        <v>187259.2813573655</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.737750420538136e-06</v>
+        <v>6.616004784593636e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.84837962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>137394.0914023077</v>
+        <v>169387.5183647232</v>
       </c>
     </row>
     <row r="18">
@@ -22377,28 +22377,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>109.14951759108</v>
+        <v>134.9994325909571</v>
       </c>
       <c r="AB18" t="n">
-        <v>149.3431853049187</v>
+        <v>184.7121794254959</v>
       </c>
       <c r="AC18" t="n">
-        <v>135.0900813039349</v>
+        <v>167.0835082663505</v>
       </c>
       <c r="AD18" t="n">
-        <v>109149.51759108</v>
+        <v>134999.4325909571</v>
       </c>
       <c r="AE18" t="n">
-        <v>149343.1853049187</v>
+        <v>184712.1794254959</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.787022281170421e-06</v>
+        <v>6.703218436927891e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.799189814814815</v>
       </c>
       <c r="AH18" t="n">
-        <v>135090.0813039349</v>
+        <v>167083.5082663505</v>
       </c>
     </row>
     <row r="19">
@@ -22483,28 +22483,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>107.688596141339</v>
+        <v>133.538511141216</v>
       </c>
       <c r="AB19" t="n">
-        <v>147.3442881260783</v>
+        <v>182.7132822466555</v>
       </c>
       <c r="AC19" t="n">
-        <v>133.2819560663727</v>
+        <v>165.2753830287882</v>
       </c>
       <c r="AD19" t="n">
-        <v>107688.596141339</v>
+        <v>133538.511141216</v>
       </c>
       <c r="AE19" t="n">
-        <v>147344.2881260783</v>
+        <v>182713.2822466555</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.814517073228599e-06</v>
+        <v>6.751885591055887e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>133281.9560663727</v>
+        <v>165275.3830287882</v>
       </c>
     </row>
     <row r="20">
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>106.544644243701</v>
+        <v>132.394559243578</v>
       </c>
       <c r="AB20" t="n">
-        <v>145.7790826721349</v>
+        <v>181.1480767927121</v>
       </c>
       <c r="AC20" t="n">
-        <v>131.8661316241734</v>
+        <v>163.859558586589</v>
       </c>
       <c r="AD20" t="n">
-        <v>106544.644243701</v>
+        <v>132394.559243578</v>
       </c>
       <c r="AE20" t="n">
-        <v>145779.0826721349</v>
+        <v>181148.0767927121</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.83365901706657e-06</v>
+        <v>6.785767786967782e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.752893518518519</v>
       </c>
       <c r="AH20" t="n">
-        <v>131866.1316241734</v>
+        <v>163859.558586589</v>
       </c>
     </row>
     <row r="21">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>106.3488195288357</v>
+        <v>132.1987345287127</v>
       </c>
       <c r="AB21" t="n">
-        <v>145.5111466580796</v>
+        <v>180.8801407786568</v>
       </c>
       <c r="AC21" t="n">
-        <v>131.6237670472489</v>
+        <v>163.6171940096645</v>
       </c>
       <c r="AD21" t="n">
-        <v>106348.8195288357</v>
+        <v>132198.7345287127</v>
       </c>
       <c r="AE21" t="n">
-        <v>145511.1466580796</v>
+        <v>180880.1407786568</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.829532312291111e-06</v>
+        <v>6.7784633135634e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH21" t="n">
-        <v>131623.767047249</v>
+        <v>163617.1940096645</v>
       </c>
     </row>
     <row r="22">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>106.3888516251056</v>
+        <v>132.2387666249826</v>
       </c>
       <c r="AB22" t="n">
-        <v>145.5659203382876</v>
+        <v>180.9349144588647</v>
       </c>
       <c r="AC22" t="n">
-        <v>131.6733132042932</v>
+        <v>163.6667401667087</v>
       </c>
       <c r="AD22" t="n">
-        <v>106388.8516251056</v>
+        <v>132238.7666249826</v>
       </c>
       <c r="AE22" t="n">
-        <v>145565.9203382875</v>
+        <v>180934.9144588647</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.829233996283247e-06</v>
+        <v>6.777935279341395e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH22" t="n">
-        <v>131673.3132042932</v>
+        <v>163666.7401667087</v>
       </c>
     </row>
   </sheetData>
@@ -23098,28 +23098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.96869475935222</v>
+        <v>102.9764200073183</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.5214284901803</v>
+        <v>140.8968808529754</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6871026834323</v>
+        <v>127.4498802944197</v>
       </c>
       <c r="AD2" t="n">
-        <v>82968.69475935222</v>
+        <v>102976.4200073183</v>
       </c>
       <c r="AE2" t="n">
-        <v>113521.4284901803</v>
+        <v>140896.8808529754</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.413200892133941e-06</v>
+        <v>9.82733638254984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.129050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>102687.1026834323</v>
+        <v>127449.8802944197</v>
       </c>
     </row>
   </sheetData>
@@ -23395,28 +23395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.7083701544334</v>
+        <v>177.4629203181678</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.3105731799042</v>
+        <v>242.8125966907001</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.2388272484176</v>
+        <v>219.6389032522299</v>
       </c>
       <c r="AD2" t="n">
-        <v>153708.3701544334</v>
+        <v>177462.9203181678</v>
       </c>
       <c r="AE2" t="n">
-        <v>210310.5731799042</v>
+        <v>242812.5966907001</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.080110995001733e-06</v>
+        <v>5.823761964674986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.057870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>190238.8272484175</v>
+        <v>219638.9032522299</v>
       </c>
     </row>
     <row r="3">
@@ -23501,28 +23501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6827356132075</v>
+        <v>150.5225371229625</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.3329077137689</v>
+        <v>205.951575877214</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.790258275879</v>
+        <v>186.2958465304036</v>
       </c>
       <c r="AD3" t="n">
-        <v>126682.7356132075</v>
+        <v>150522.5371229625</v>
       </c>
       <c r="AE3" t="n">
-        <v>173332.9077137689</v>
+        <v>205951.575877214</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.436703284754673e-06</v>
+        <v>6.497993710650871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.534143518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>156790.258275879</v>
+        <v>186295.8465304036</v>
       </c>
     </row>
     <row r="4">
@@ -23607,28 +23607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.5296063706676</v>
+        <v>142.1988156798303</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.1774365934549</v>
+        <v>194.5626929820532</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.6994496624821</v>
+        <v>175.9939026343557</v>
       </c>
       <c r="AD4" t="n">
-        <v>118529.6063706676</v>
+        <v>142198.8156798304</v>
       </c>
       <c r="AE4" t="n">
-        <v>162177.4365934549</v>
+        <v>194562.6929820532</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.675005787313411e-06</v>
+        <v>6.94856742463083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.23900462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>146699.4496624821</v>
+        <v>175993.9026343557</v>
       </c>
     </row>
     <row r="5">
@@ -23713,28 +23713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.6539441279674</v>
+        <v>136.3231534371302</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.138096297073</v>
+        <v>186.5233526856713</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.4273727206994</v>
+        <v>168.721825692573</v>
       </c>
       <c r="AD5" t="n">
-        <v>112653.9441279674</v>
+        <v>136323.1534371302</v>
       </c>
       <c r="AE5" t="n">
-        <v>154138.096297073</v>
+        <v>186523.3526856713</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.861297395730317e-06</v>
+        <v>7.300800829594827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.033564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>139427.3727206994</v>
+        <v>168721.825692573</v>
       </c>
     </row>
     <row r="6">
@@ -23819,28 +23819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.42620835075016</v>
+        <v>120.1806690059335</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.9345922895199</v>
+        <v>164.4364933307673</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.3429399728065</v>
+        <v>148.7429051953923</v>
       </c>
       <c r="AD6" t="n">
-        <v>96426.20835075015</v>
+        <v>120180.6690059335</v>
       </c>
       <c r="AE6" t="n">
-        <v>131934.5922895199</v>
+        <v>164436.4933307673</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.007800131713672e-06</v>
+        <v>7.577802880145995e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.88599537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>119342.9399728065</v>
+        <v>148742.9051953923</v>
       </c>
     </row>
     <row r="7">
@@ -23925,28 +23925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.66123602085064</v>
+        <v>116.415696676034</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.7831910488974</v>
+        <v>159.2850920901449</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.6831812365503</v>
+        <v>144.0831464591361</v>
       </c>
       <c r="AD7" t="n">
-        <v>92661.23602085064</v>
+        <v>116415.696676034</v>
       </c>
       <c r="AE7" t="n">
-        <v>126783.1910488974</v>
+        <v>159285.0920901449</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.131043337397573e-06</v>
+        <v>7.810826655857727e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>114683.1812365503</v>
+        <v>144083.1464591361</v>
       </c>
     </row>
     <row r="8">
@@ -24031,28 +24031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.71947630564888</v>
+        <v>112.4739369608322</v>
       </c>
       <c r="AB8" t="n">
-        <v>121.3899015083956</v>
+        <v>153.891802549643</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.8046196802628</v>
+        <v>139.2045849028486</v>
       </c>
       <c r="AD8" t="n">
-        <v>88719.47630564889</v>
+        <v>112473.9369608322</v>
       </c>
       <c r="AE8" t="n">
-        <v>121389.9015083956</v>
+        <v>153891.802549643</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.275769303705274e-06</v>
+        <v>8.08446925485866e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.642939814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>109804.6196802628</v>
+        <v>139204.5849028486</v>
       </c>
     </row>
     <row r="9">
@@ -24137,28 +24137,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.15061517809124</v>
+        <v>111.9050758332746</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.6115606172899</v>
+        <v>153.1134616585373</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.1005625513957</v>
+        <v>138.5005277739815</v>
       </c>
       <c r="AD9" t="n">
-        <v>88150.61517809125</v>
+        <v>111905.0758332746</v>
       </c>
       <c r="AE9" t="n">
-        <v>120611.5606172899</v>
+        <v>153113.4616585373</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.291975596807438e-06</v>
+        <v>8.115111525059284e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>109100.5625513957</v>
+        <v>138500.5277739815</v>
       </c>
     </row>
   </sheetData>
@@ -24434,28 +24434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.60238696998017</v>
+        <v>101.1163135935569</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6519858955169</v>
+        <v>138.3518011955649</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.9960770662238</v>
+        <v>125.1476994674699</v>
       </c>
       <c r="AD2" t="n">
-        <v>81602.38696998017</v>
+        <v>101116.3135935569</v>
       </c>
       <c r="AE2" t="n">
-        <v>111651.9858955169</v>
+        <v>138351.8011955649</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305815389750451e-06</v>
+        <v>9.871369186362216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>100996.0770662238</v>
+        <v>125147.6994674699</v>
       </c>
     </row>
   </sheetData>
@@ -24731,28 +24731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.1517667935131</v>
+        <v>268.8020331517218</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.2720450229709</v>
+        <v>367.7868004669439</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.0874849366754</v>
+        <v>332.6857444223944</v>
       </c>
       <c r="AD2" t="n">
-        <v>231151.7667935131</v>
+        <v>268802.0331517218</v>
       </c>
       <c r="AE2" t="n">
-        <v>316272.0450229709</v>
+        <v>367786.8004669439</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.29578966362519e-06</v>
+        <v>4.146599695760639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.429398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>286087.4849366753</v>
+        <v>332685.7444223944</v>
       </c>
     </row>
     <row r="3">
@@ -24837,28 +24837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.3002581623597</v>
+        <v>223.0357758665857</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.5359880880613</v>
+        <v>305.1673881845046</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.3388692250047</v>
+        <v>276.0426409613851</v>
       </c>
       <c r="AD3" t="n">
-        <v>185300.2581623597</v>
+        <v>223035.7758665857</v>
       </c>
       <c r="AE3" t="n">
-        <v>253535.9880880613</v>
+        <v>305167.3881845046</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.67551366167047e-06</v>
+        <v>4.832447985660701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.517939814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>229338.8692250047</v>
+        <v>276042.6409613851</v>
       </c>
     </row>
     <row r="4">
@@ -24943,28 +24943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.3573596148708</v>
+        <v>193.5144609262392</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.3539668274684</v>
+        <v>264.7750226946457</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.3693075373442</v>
+        <v>239.5052661428244</v>
       </c>
       <c r="AD4" t="n">
-        <v>168357.3596148708</v>
+        <v>193514.4609262392</v>
       </c>
       <c r="AE4" t="n">
-        <v>230353.9668274684</v>
+        <v>264775.0226946457</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.947400941302569e-06</v>
+        <v>5.323524206129176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>208369.3075373442</v>
+        <v>239505.2661428244</v>
       </c>
     </row>
     <row r="5">
@@ -25049,28 +25049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.3905190578239</v>
+        <v>183.0406959074782</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.929722351837</v>
+        <v>250.4443553260827</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.944148850253</v>
+        <v>226.5422975546946</v>
       </c>
       <c r="AD5" t="n">
-        <v>145390.5190578239</v>
+        <v>183040.6959074782</v>
       </c>
       <c r="AE5" t="n">
-        <v>198929.722351837</v>
+        <v>250444.3553260827</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.153790422239056e-06</v>
+        <v>5.69629988868367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH5" t="n">
-        <v>179944.148850253</v>
+        <v>226542.2975546946</v>
       </c>
     </row>
     <row r="6">
@@ -25155,28 +25155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.7061222275846</v>
+        <v>163.7778826843813</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.7838357139327</v>
+        <v>224.0881244589123</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.6711327967348</v>
+        <v>202.7014683702762</v>
       </c>
       <c r="AD6" t="n">
-        <v>138706.1222275846</v>
+        <v>163777.8826843813</v>
       </c>
       <c r="AE6" t="n">
-        <v>189783.8357139327</v>
+        <v>224088.1244589123</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.304935264556113e-06</v>
+        <v>5.969294042763987e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.464699074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>171671.1327967348</v>
+        <v>202701.4683702762</v>
       </c>
     </row>
     <row r="7">
@@ -25261,28 +25261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.0636936336277</v>
+        <v>158.1354540904244</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.0636159853034</v>
+        <v>216.3679047302831</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.687720003607</v>
+        <v>195.7180555771484</v>
       </c>
       <c r="AD7" t="n">
-        <v>133063.6936336276</v>
+        <v>158135.4540904244</v>
       </c>
       <c r="AE7" t="n">
-        <v>182063.6159853034</v>
+        <v>216367.9047302831</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.443633484691137e-06</v>
+        <v>6.219807409265636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.285300925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>164687.720003607</v>
+        <v>195718.0555771484</v>
       </c>
     </row>
     <row r="8">
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.9644634453739</v>
+        <v>154.0362239021706</v>
       </c>
       <c r="AB8" t="n">
-        <v>176.454868396465</v>
+        <v>210.7591571414446</v>
       </c>
       <c r="AC8" t="n">
-        <v>159.6142634127189</v>
+        <v>190.6445989862602</v>
       </c>
       <c r="AD8" t="n">
-        <v>128964.4634453739</v>
+        <v>154036.2239021706</v>
       </c>
       <c r="AE8" t="n">
-        <v>176454.868396465</v>
+        <v>210759.1571414446</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.551317170864375e-06</v>
+        <v>6.414303075571255e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.155092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>159614.2634127189</v>
+        <v>190644.5989862602</v>
       </c>
     </row>
     <row r="9">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>125.4504312228134</v>
+        <v>150.5221916796101</v>
       </c>
       <c r="AB9" t="n">
-        <v>171.6468144813997</v>
+        <v>205.9511032263794</v>
       </c>
       <c r="AC9" t="n">
-        <v>155.2650834151598</v>
+        <v>186.2954189887012</v>
       </c>
       <c r="AD9" t="n">
-        <v>125450.4312228133</v>
+        <v>150522.1916796101</v>
       </c>
       <c r="AE9" t="n">
-        <v>171646.8144813997</v>
+        <v>205951.1032263794</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.648696686214784e-06</v>
+        <v>6.590187598061746e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>155265.0834151598</v>
+        <v>186295.4189887012</v>
       </c>
     </row>
     <row r="10">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.7270873439689</v>
+        <v>134.8840991467863</v>
       </c>
       <c r="AB10" t="n">
-        <v>150.1334417214001</v>
+        <v>184.554375119029</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.8049167571594</v>
+        <v>166.940764581413</v>
       </c>
       <c r="AD10" t="n">
-        <v>109727.0873439689</v>
+        <v>134884.0991467863</v>
       </c>
       <c r="AE10" t="n">
-        <v>150133.4417214001</v>
+        <v>184554.375119029</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.731028031304128e-06</v>
+        <v>6.738892479832125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.955439814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>135804.9167571594</v>
+        <v>166940.764581413</v>
       </c>
     </row>
     <row r="11">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>106.2179759333594</v>
+        <v>131.3749877361767</v>
       </c>
       <c r="AB11" t="n">
-        <v>145.3321206783371</v>
+        <v>179.753054075966</v>
       </c>
       <c r="AC11" t="n">
-        <v>131.4618270557484</v>
+        <v>162.597674880002</v>
       </c>
       <c r="AD11" t="n">
-        <v>106217.9759333594</v>
+        <v>131374.9877361767</v>
       </c>
       <c r="AE11" t="n">
-        <v>145332.1206783371</v>
+        <v>179753.054075966</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.824530729909313e-06</v>
+        <v>6.907774789798113e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>131461.8270557484</v>
+        <v>162597.674880002</v>
       </c>
     </row>
     <row r="12">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.30713095626</v>
+        <v>132.4641427590773</v>
       </c>
       <c r="AB12" t="n">
-        <v>146.8223506307974</v>
+        <v>181.2432840284262</v>
       </c>
       <c r="AC12" t="n">
-        <v>132.8098315530972</v>
+        <v>163.9456793773508</v>
       </c>
       <c r="AD12" t="n">
-        <v>107307.13095626</v>
+        <v>132464.1427590773</v>
       </c>
       <c r="AE12" t="n">
-        <v>146822.3506307974</v>
+        <v>181243.2840284262</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.790251508162077e-06</v>
+        <v>6.84586048958145e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.894675925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>132809.8315530972</v>
+        <v>163945.6793773508</v>
       </c>
     </row>
     <row r="13">
@@ -25897,28 +25897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>103.8457384702616</v>
+        <v>129.0027502730788</v>
       </c>
       <c r="AB13" t="n">
-        <v>142.0863207255976</v>
+        <v>176.5072541232265</v>
       </c>
       <c r="AC13" t="n">
-        <v>128.5258016949885</v>
+        <v>159.6616495192421</v>
       </c>
       <c r="AD13" t="n">
-        <v>103845.7384702616</v>
+        <v>129002.7502730789</v>
       </c>
       <c r="AE13" t="n">
-        <v>142086.3207255976</v>
+        <v>176507.2541232265</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.885488572153283e-06</v>
+        <v>7.0178753683084e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.799189814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>128525.8016949885</v>
+        <v>159661.6495192421</v>
       </c>
     </row>
     <row r="14">
@@ -26003,28 +26003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.7704727541675</v>
+        <v>126.9274845569848</v>
       </c>
       <c r="AB14" t="n">
-        <v>139.2468506185773</v>
+        <v>173.6677840162062</v>
       </c>
       <c r="AC14" t="n">
-        <v>125.95732662976</v>
+        <v>157.0931744540136</v>
       </c>
       <c r="AD14" t="n">
-        <v>101770.4727541675</v>
+        <v>126927.4845569848</v>
       </c>
       <c r="AE14" t="n">
-        <v>139246.8506185773</v>
+        <v>173667.7840162062</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.933642716988688e-06</v>
+        <v>7.104850218612761e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.752893518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>125957.32662976</v>
+        <v>157093.1744540136</v>
       </c>
     </row>
     <row r="15">
@@ -26109,28 +26109,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>100.5936621195849</v>
+        <v>125.7506739224022</v>
       </c>
       <c r="AB15" t="n">
-        <v>137.6366863911212</v>
+        <v>172.0576197887501</v>
       </c>
       <c r="AC15" t="n">
-        <v>124.5008342162921</v>
+        <v>155.6366820405457</v>
       </c>
       <c r="AD15" t="n">
-        <v>100593.6621195849</v>
+        <v>125750.6739224022</v>
       </c>
       <c r="AE15" t="n">
-        <v>137636.6863911212</v>
+        <v>172057.6197887501</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.955781381033778e-06</v>
+        <v>7.144836537502689e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>124500.8342162921</v>
+        <v>155636.6820405457</v>
       </c>
     </row>
     <row r="16">
@@ -26215,28 +26215,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>99.90843810805335</v>
+        <v>125.0654499108707</v>
       </c>
       <c r="AB16" t="n">
-        <v>136.6991326685943</v>
+        <v>171.1200660662232</v>
       </c>
       <c r="AC16" t="n">
-        <v>123.652759305178</v>
+        <v>154.7886071294315</v>
       </c>
       <c r="AD16" t="n">
-        <v>99908.43810805335</v>
+        <v>125065.4499108707</v>
       </c>
       <c r="AE16" t="n">
-        <v>136699.1326685943</v>
+        <v>171120.0660662232</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.979858453451479e-06</v>
+        <v>7.188323962654868e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>123652.759305178</v>
+        <v>154788.6071294315</v>
       </c>
     </row>
     <row r="17">
@@ -26321,28 +26321,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>100.0182020414698</v>
+        <v>125.1752138442871</v>
       </c>
       <c r="AB17" t="n">
-        <v>136.8493165247376</v>
+        <v>171.2702499223665</v>
       </c>
       <c r="AC17" t="n">
-        <v>123.7886098248753</v>
+        <v>154.9244576491289</v>
       </c>
       <c r="AD17" t="n">
-        <v>100018.2020414698</v>
+        <v>125175.2138442871</v>
       </c>
       <c r="AE17" t="n">
-        <v>136849.3165247376</v>
+        <v>171270.2499223665</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.977205894625801e-06</v>
+        <v>7.183532975138103e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>123788.6098248753</v>
+        <v>154924.4576491289</v>
       </c>
     </row>
   </sheetData>
@@ -26618,28 +26618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.03285171094</v>
+        <v>369.060374012027</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.7783342132088</v>
+        <v>504.9646855178461</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.3791388076152</v>
+        <v>456.7715646544095</v>
       </c>
       <c r="AD2" t="n">
-        <v>317032.85171094</v>
+        <v>369060.3740120269</v>
       </c>
       <c r="AE2" t="n">
-        <v>433778.3342132088</v>
+        <v>504964.6855178461</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841073504893472e-06</v>
+        <v>3.243926995482209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.766203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>392379.1388076151</v>
+        <v>456771.5646544095</v>
       </c>
     </row>
     <row r="3">
@@ -26724,28 +26724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.9689749163728</v>
+        <v>282.9043652961704</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.8091146319732</v>
+        <v>387.0822334579634</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.9508412356319</v>
+        <v>350.1396483700614</v>
       </c>
       <c r="AD3" t="n">
-        <v>243968.9749163728</v>
+        <v>282904.3652961704</v>
       </c>
       <c r="AE3" t="n">
-        <v>333809.1146319732</v>
+        <v>387082.2334579634</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234929099655923e-06</v>
+        <v>3.937891029387278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.397569444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>301950.8412356319</v>
+        <v>350139.6483700614</v>
       </c>
     </row>
     <row r="4">
@@ -26830,28 +26830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.5744043383255</v>
+        <v>242.5950460641402</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.5394810844359</v>
+        <v>331.9292445628864</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.9560639424361</v>
+        <v>300.2503833275239</v>
       </c>
       <c r="AD4" t="n">
-        <v>203574.4043383255</v>
+        <v>242595.0460641402</v>
       </c>
       <c r="AE4" t="n">
-        <v>278539.4810844359</v>
+        <v>331929.2445628864</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.51402340805391e-06</v>
+        <v>4.429648451831993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.688657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>251956.0639424361</v>
+        <v>300250.3833275239</v>
       </c>
     </row>
     <row r="5">
@@ -26936,28 +26936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.9226942368225</v>
+        <v>212.9365448959167</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.7558767019682</v>
+        <v>291.349174823817</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.3468947852343</v>
+        <v>263.5432184898528</v>
       </c>
       <c r="AD5" t="n">
-        <v>186922.6942368225</v>
+        <v>212936.5448959167</v>
       </c>
       <c r="AE5" t="n">
-        <v>255755.8767019682</v>
+        <v>291349.174823817</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.737565741484776e-06</v>
+        <v>4.823524637721392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.222800925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>231346.8947852343</v>
+        <v>263543.2184898528</v>
       </c>
     </row>
     <row r="6">
@@ -27042,28 +27042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.5618928235698</v>
+        <v>202.4971936948129</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.79259760255</v>
+        <v>277.065593958803</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.4341461823104</v>
+        <v>250.6228425354595</v>
       </c>
       <c r="AD6" t="n">
-        <v>163561.8928235698</v>
+        <v>202497.1936948129</v>
       </c>
       <c r="AE6" t="n">
-        <v>223792.5976025501</v>
+        <v>277065.593958803</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.901355105400294e-06</v>
+        <v>5.112117536248359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.927662037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>202434.1461823104</v>
+        <v>250622.8425354596</v>
       </c>
     </row>
     <row r="7">
@@ -27148,28 +27148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.2157260091032</v>
+        <v>195.1510268803462</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.7412480769951</v>
+        <v>267.014244433248</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.3420833483136</v>
+        <v>241.5307797014627</v>
       </c>
       <c r="AD7" t="n">
-        <v>156215.7260091032</v>
+        <v>195151.0268803462</v>
       </c>
       <c r="AE7" t="n">
-        <v>213741.2480769951</v>
+        <v>267014.244433248</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.036182318665694e-06</v>
+        <v>5.349679825681541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>193342.0833483136</v>
+        <v>241530.7797014627</v>
       </c>
     </row>
     <row r="8">
@@ -27254,28 +27254,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.7099719604897</v>
+        <v>176.8090739656044</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.20803249096</v>
+        <v>241.917975265458</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.5278272848728</v>
+        <v>218.8296632402036</v>
       </c>
       <c r="AD8" t="n">
-        <v>150709.9719604897</v>
+        <v>176809.0739656044</v>
       </c>
       <c r="AE8" t="n">
-        <v>206208.03249096</v>
+        <v>241917.975265458</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.147483962461031e-06</v>
+        <v>5.545790630594857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>186527.8272848729</v>
+        <v>218829.6632402036</v>
       </c>
     </row>
     <row r="9">
@@ -27360,28 +27360,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.8043785899838</v>
+        <v>171.7328883945063</v>
       </c>
       <c r="AB9" t="n">
-        <v>199.4959832219319</v>
+        <v>234.972514221583</v>
       </c>
       <c r="AC9" t="n">
-        <v>180.4563665776583</v>
+        <v>212.547067250338</v>
       </c>
       <c r="AD9" t="n">
-        <v>145804.3785899838</v>
+        <v>171732.8883945063</v>
       </c>
       <c r="AE9" t="n">
-        <v>199495.9832219318</v>
+        <v>234972.514221583</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.253546718937404e-06</v>
+        <v>5.732670642736942e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.39525462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>180456.3665776583</v>
+        <v>212547.067250338</v>
       </c>
     </row>
     <row r="10">
@@ -27466,28 +27466,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>142.3751457760422</v>
+        <v>168.3036555805647</v>
       </c>
       <c r="AB10" t="n">
-        <v>194.8039555988249</v>
+        <v>230.280486598476</v>
       </c>
       <c r="AC10" t="n">
-        <v>176.212139485597</v>
+        <v>208.3028401582767</v>
       </c>
       <c r="AD10" t="n">
-        <v>142375.1457760422</v>
+        <v>168303.6555805647</v>
       </c>
       <c r="AE10" t="n">
-        <v>194803.9555988249</v>
+        <v>230280.486598476</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.326693447541799e-06</v>
+        <v>5.861553409731483e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH10" t="n">
-        <v>176212.139485597</v>
+        <v>208302.8401582767</v>
       </c>
     </row>
     <row r="11">
@@ -27572,28 +27572,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.1717971038385</v>
+        <v>165.100306908361</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.4209926237486</v>
+        <v>225.8975236233997</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.2474803453334</v>
+        <v>204.3381810180132</v>
       </c>
       <c r="AD11" t="n">
-        <v>139171.7971038385</v>
+        <v>165100.306908361</v>
       </c>
       <c r="AE11" t="n">
-        <v>190420.9926237486</v>
+        <v>225897.5236233997</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403349242180595e-06</v>
+        <v>5.996619066223737e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.201388888888888</v>
       </c>
       <c r="AH11" t="n">
-        <v>172247.4803453334</v>
+        <v>204338.1810180132</v>
       </c>
     </row>
     <row r="12">
@@ -27678,28 +27678,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>136.3540096495865</v>
+        <v>162.282519454109</v>
       </c>
       <c r="AB12" t="n">
-        <v>186.5655715168339</v>
+        <v>222.042102516485</v>
       </c>
       <c r="AC12" t="n">
-        <v>168.7600152177439</v>
+        <v>200.8507158904236</v>
       </c>
       <c r="AD12" t="n">
-        <v>136354.0096495865</v>
+        <v>162282.519454109</v>
       </c>
       <c r="AE12" t="n">
-        <v>186565.5715168339</v>
+        <v>222042.102516485</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.466808971591436e-06</v>
+        <v>6.108433574886569e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>168760.0152177439</v>
+        <v>200850.7158904236</v>
       </c>
     </row>
     <row r="13">
@@ -27784,28 +27784,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>133.3721185479627</v>
+        <v>159.3006283524852</v>
       </c>
       <c r="AB13" t="n">
-        <v>182.4856165598433</v>
+        <v>217.9621475594944</v>
       </c>
       <c r="AC13" t="n">
-        <v>165.0694454355945</v>
+        <v>197.1601461082742</v>
       </c>
       <c r="AD13" t="n">
-        <v>133372.1185479627</v>
+        <v>159300.6283524852</v>
       </c>
       <c r="AE13" t="n">
-        <v>182485.6165598433</v>
+        <v>217962.1475594944</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.538967230890366e-06</v>
+        <v>6.23557468286767e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.042245370370371</v>
       </c>
       <c r="AH13" t="n">
-        <v>165069.4454355945</v>
+        <v>197160.1461082742</v>
       </c>
     </row>
     <row r="14">
@@ -27890,28 +27890,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>117.6997343935601</v>
+        <v>156.5496944102315</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.0419691430093</v>
+        <v>214.1981983770646</v>
       </c>
       <c r="AC14" t="n">
-        <v>145.6723496318681</v>
+        <v>193.7554229530784</v>
       </c>
       <c r="AD14" t="n">
-        <v>117699.7343935601</v>
+        <v>156549.6944102315</v>
       </c>
       <c r="AE14" t="n">
-        <v>161041.9691430093</v>
+        <v>214198.1983770646</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592641114177105e-06</v>
+        <v>6.330146767297449e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.981481481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>145672.3496318681</v>
+        <v>193755.4229530784</v>
       </c>
     </row>
     <row r="15">
@@ -27996,28 +27996,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>118.171516699503</v>
+        <v>157.0214767161744</v>
       </c>
       <c r="AB15" t="n">
-        <v>161.6874825075665</v>
+        <v>214.8437117416218</v>
       </c>
       <c r="AC15" t="n">
-        <v>146.2562561068959</v>
+        <v>194.3393294281062</v>
       </c>
       <c r="AD15" t="n">
-        <v>118171.516699503</v>
+        <v>157021.4767161744</v>
       </c>
       <c r="AE15" t="n">
-        <v>161687.4825075665</v>
+        <v>214843.7117416218</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.592987078434018e-06</v>
+        <v>6.330756347952154e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.981481481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>146256.2561068959</v>
+        <v>194339.3294281062</v>
       </c>
     </row>
     <row r="16">
@@ -28102,28 +28102,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>115.8934349868213</v>
+        <v>141.9071961373644</v>
       </c>
       <c r="AB16" t="n">
-        <v>158.5705106064049</v>
+        <v>194.1636862587052</v>
       </c>
       <c r="AC16" t="n">
-        <v>143.4367636292826</v>
+        <v>175.6329765526745</v>
       </c>
       <c r="AD16" t="n">
-        <v>115893.4349868213</v>
+        <v>141907.1961373644</v>
       </c>
       <c r="AE16" t="n">
-        <v>158570.5106064049</v>
+        <v>194163.6862587052</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.646166727068024e-06</v>
+        <v>6.424457602875211e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>143436.7636292826</v>
+        <v>175632.9765526745</v>
       </c>
     </row>
     <row r="17">
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>114.7441522370838</v>
+        <v>140.7579133876269</v>
       </c>
       <c r="AB17" t="n">
-        <v>156.9980112454383</v>
+        <v>192.5911868977386</v>
       </c>
       <c r="AC17" t="n">
-        <v>142.0143414003094</v>
+        <v>174.2105543237014</v>
       </c>
       <c r="AD17" t="n">
-        <v>114744.1522370838</v>
+        <v>140757.9133876269</v>
       </c>
       <c r="AE17" t="n">
-        <v>156998.0112454383</v>
+        <v>192591.1868977386</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.666578618225873e-06</v>
+        <v>6.460422861502743e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>142014.3414003094</v>
+        <v>174210.5543237014</v>
       </c>
     </row>
     <row r="18">
@@ -28314,28 +28314,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>112.6312516137338</v>
+        <v>138.6450127642769</v>
       </c>
       <c r="AB18" t="n">
-        <v>154.1070473979755</v>
+        <v>189.7002230502759</v>
       </c>
       <c r="AC18" t="n">
-        <v>139.3992870849544</v>
+        <v>171.5955000083463</v>
       </c>
       <c r="AD18" t="n">
-        <v>112631.2516137338</v>
+        <v>138645.0127642769</v>
       </c>
       <c r="AE18" t="n">
-        <v>154107.0473979755</v>
+        <v>189700.2230502759</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.716891705874032e-06</v>
+        <v>6.549073305286826e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.84837962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>139399.2870849544</v>
+        <v>171595.5000083463</v>
       </c>
     </row>
     <row r="19">
@@ -28420,28 +28420,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>111.4216146896698</v>
+        <v>137.4353758402129</v>
       </c>
       <c r="AB19" t="n">
-        <v>152.4519687930572</v>
+        <v>188.0451444453576</v>
       </c>
       <c r="AC19" t="n">
-        <v>137.9021668591715</v>
+        <v>170.0983797825634</v>
       </c>
       <c r="AD19" t="n">
-        <v>111421.6146896698</v>
+        <v>137435.3758402129</v>
       </c>
       <c r="AE19" t="n">
-        <v>152451.9687930572</v>
+        <v>188045.1444453576</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.741504591580104e-06</v>
+        <v>6.592440614721475e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.822337962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>137902.1668591715</v>
+        <v>170098.3797825634</v>
       </c>
     </row>
     <row r="20">
@@ -28526,28 +28526,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>110.252995626623</v>
+        <v>136.2667567771661</v>
       </c>
       <c r="AB20" t="n">
-        <v>150.8530126351629</v>
+        <v>186.4461882874633</v>
       </c>
       <c r="AC20" t="n">
-        <v>136.4558128328371</v>
+        <v>168.652025756229</v>
       </c>
       <c r="AD20" t="n">
-        <v>110252.995626623</v>
+        <v>136266.7567771661</v>
       </c>
       <c r="AE20" t="n">
-        <v>150853.0126351629</v>
+        <v>186446.1882874633</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.760730319571395e-06</v>
+        <v>6.626315882532879e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>136455.8128328371</v>
+        <v>168652.025756229</v>
       </c>
     </row>
     <row r="21">
@@ -28632,28 +28632,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>108.7769995112916</v>
+        <v>134.7907606618347</v>
       </c>
       <c r="AB21" t="n">
-        <v>148.8334896338147</v>
+        <v>184.4266652861151</v>
       </c>
       <c r="AC21" t="n">
-        <v>134.6290302723185</v>
+        <v>166.8252431957105</v>
       </c>
       <c r="AD21" t="n">
-        <v>108776.9995112917</v>
+        <v>134790.7606618347</v>
       </c>
       <c r="AE21" t="n">
-        <v>148833.4896338147</v>
+        <v>184426.6652861151</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.7865787919093e-06</v>
+        <v>6.671860265734328e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>134629.0302723185</v>
+        <v>166825.2431957105</v>
       </c>
     </row>
     <row r="22">
@@ -28738,28 +28738,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>107.7646668256576</v>
+        <v>133.7784279762006</v>
       </c>
       <c r="AB22" t="n">
-        <v>147.4483713923647</v>
+        <v>183.0415470446651</v>
       </c>
       <c r="AC22" t="n">
-        <v>133.3761057718065</v>
+        <v>165.5723186951984</v>
       </c>
       <c r="AD22" t="n">
-        <v>107764.6668256576</v>
+        <v>133778.4279762006</v>
       </c>
       <c r="AE22" t="n">
-        <v>147448.3713923647</v>
+        <v>183041.5470446651</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.811982453059745e-06</v>
+        <v>6.71662090237973e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.752893518518519</v>
       </c>
       <c r="AH22" t="n">
-        <v>133376.1057718065</v>
+        <v>165572.3186951984</v>
       </c>
     </row>
     <row r="23">
@@ -28844,28 +28844,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>107.9483824454961</v>
+        <v>133.9621435960391</v>
       </c>
       <c r="AB23" t="n">
-        <v>147.6997392083888</v>
+        <v>183.2929148606892</v>
       </c>
       <c r="AC23" t="n">
-        <v>133.6034833962662</v>
+        <v>165.7996963196581</v>
       </c>
       <c r="AD23" t="n">
-        <v>107948.3824454961</v>
+        <v>133962.1435960392</v>
       </c>
       <c r="AE23" t="n">
-        <v>147699.7392083888</v>
+        <v>183292.9148606892</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.808325116629526e-06</v>
+        <v>6.710176764030002e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH23" t="n">
-        <v>133603.4833962662</v>
+        <v>165799.6963196581</v>
       </c>
     </row>
     <row r="24">
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>108.0113114244251</v>
+        <v>134.0250725749682</v>
       </c>
       <c r="AB24" t="n">
-        <v>147.7858414135901</v>
+        <v>183.3790170658905</v>
       </c>
       <c r="AC24" t="n">
-        <v>133.6813681278484</v>
+        <v>165.8775810512403</v>
       </c>
       <c r="AD24" t="n">
-        <v>108011.3114244251</v>
+        <v>134025.0725749682</v>
       </c>
       <c r="AE24" t="n">
-        <v>147785.8414135901</v>
+        <v>183379.0170658905</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.806990683067148e-06</v>
+        <v>6.707825524361859e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH24" t="n">
-        <v>133681.3681278484</v>
+        <v>165877.5810512403</v>
       </c>
     </row>
   </sheetData>
@@ -29247,28 +29247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.5516781582847</v>
+        <v>137.2570081455778</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.7346597194685</v>
+        <v>187.8010938965307</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7761237743618</v>
+        <v>169.8776210755894</v>
       </c>
       <c r="AD2" t="n">
-        <v>114551.6781582847</v>
+        <v>137257.0081455778</v>
       </c>
       <c r="AE2" t="n">
-        <v>156734.6597194684</v>
+        <v>187801.0938965307</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.662694963820747e-06</v>
+        <v>7.178831510885338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.421296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>141776.1237743619</v>
+        <v>169877.6210755894</v>
       </c>
     </row>
     <row r="3">
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1212191502841</v>
+        <v>127.8265491375772</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.8314896622398</v>
+        <v>174.8979238393021</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.1044141576781</v>
+        <v>158.2059114589057</v>
       </c>
       <c r="AD3" t="n">
-        <v>105121.2191502841</v>
+        <v>127826.5491375772</v>
       </c>
       <c r="AE3" t="n">
-        <v>143831.4896622398</v>
+        <v>174897.9238393021</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.99547386070633e-06</v>
+        <v>7.831073549798628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>130104.4141576781</v>
+        <v>158205.9114589057</v>
       </c>
     </row>
     <row r="4">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.92913281526727</v>
+        <v>110.7197141485809</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.308518677362</v>
+        <v>151.4915975070735</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.8264425088924</v>
+        <v>137.0334520608322</v>
       </c>
       <c r="AD4" t="n">
-        <v>87929.13281526726</v>
+        <v>110719.7141485809</v>
       </c>
       <c r="AE4" t="n">
-        <v>120308.518677362</v>
+        <v>151491.5975070735</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.217195847344478e-06</v>
+        <v>8.265645579426138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.839699074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>108826.4425088924</v>
+        <v>137033.4520608322</v>
       </c>
     </row>
     <row r="5">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.34055046500268</v>
+        <v>107.1311317983164</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.3984619886526</v>
+        <v>146.5815408183641</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.3849947392441</v>
+        <v>132.5920042911838</v>
       </c>
       <c r="AD5" t="n">
-        <v>84340.55046500269</v>
+        <v>107131.1317983164</v>
       </c>
       <c r="AE5" t="n">
-        <v>115398.4619886526</v>
+        <v>146581.5408183641</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.358983727211792e-06</v>
+        <v>8.543547864466907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>104384.9947392441</v>
+        <v>132592.0042911838</v>
       </c>
     </row>
     <row r="6">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.10162933981408</v>
+        <v>106.8922106731278</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.0715595647136</v>
+        <v>146.2546383944251</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.0892914238353</v>
+        <v>132.296300975775</v>
       </c>
       <c r="AD6" t="n">
-        <v>84101.62933981408</v>
+        <v>106892.2106731278</v>
       </c>
       <c r="AE6" t="n">
-        <v>115071.5595647136</v>
+        <v>146254.6383944251</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.365588926510783e-06</v>
+        <v>8.556493963809508e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>104089.2914238353</v>
+        <v>132296.300975775</v>
       </c>
     </row>
   </sheetData>
@@ -29968,28 +29968,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.8530660534518</v>
+        <v>307.7905699335245</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.4376965317007</v>
+        <v>421.1326365446538</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.8969760207251</v>
+        <v>380.9403287761989</v>
       </c>
       <c r="AD2" t="n">
-        <v>256853.0660534517</v>
+        <v>307790.5699335245</v>
       </c>
       <c r="AE2" t="n">
-        <v>351437.6965317007</v>
+        <v>421132.6365446538</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.103890167765765e-06</v>
+        <v>3.760249943142465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.924189814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>317896.9760207251</v>
+        <v>380940.3287761989</v>
       </c>
     </row>
     <row r="3">
@@ -30074,28 +30074,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.0429815738855</v>
+        <v>239.3101151248659</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.0758767796403</v>
+        <v>327.4346571308486</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.8230211712899</v>
+        <v>296.1847530118054</v>
       </c>
       <c r="AD3" t="n">
-        <v>201042.9815738855</v>
+        <v>239310.1151248659</v>
       </c>
       <c r="AE3" t="n">
-        <v>275075.8767796403</v>
+        <v>327434.6571308486</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.500584619383161e-06</v>
+        <v>4.469255723003746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>248823.0211712899</v>
+        <v>296184.7530118054</v>
       </c>
     </row>
     <row r="4">
@@ -30180,28 +30180,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.7860865694549</v>
+        <v>206.2975984453261</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.3594993634567</v>
+        <v>282.2654754004773</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.7518559155181</v>
+        <v>255.3264545904215</v>
       </c>
       <c r="AD4" t="n">
-        <v>180786.0865694549</v>
+        <v>206297.5984453261</v>
       </c>
       <c r="AE4" t="n">
-        <v>247359.4993634567</v>
+        <v>282265.4754004773</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.77545158712821e-06</v>
+        <v>4.960521149151282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.248842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>223751.8559155181</v>
+        <v>255326.4545904215</v>
       </c>
     </row>
     <row r="5">
@@ -30286,28 +30286,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.8993126597934</v>
+        <v>194.0811053562021</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.3083173732979</v>
+        <v>265.5503306023085</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.9504709433551</v>
+        <v>240.2065797519316</v>
       </c>
       <c r="AD5" t="n">
-        <v>155899.3126597934</v>
+        <v>194081.1053562021</v>
       </c>
       <c r="AE5" t="n">
-        <v>213308.3173732979</v>
+        <v>265550.3306023085</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983061729066045e-06</v>
+        <v>5.331579503992389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.884259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>192950.4709433551</v>
+        <v>240206.5797519316</v>
       </c>
     </row>
     <row r="6">
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.7798548386455</v>
+        <v>185.9616475350543</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.1989169772107</v>
+        <v>254.4409302062214</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.9013361289256</v>
+        <v>230.1574449375022</v>
       </c>
       <c r="AD6" t="n">
-        <v>147779.8548386456</v>
+        <v>185961.6475350543</v>
       </c>
       <c r="AE6" t="n">
-        <v>202198.9169772107</v>
+        <v>254440.9302062214</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.144558658100133e-06</v>
+        <v>5.62022043569226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.632523148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>182901.3361289256</v>
+        <v>230157.4449375022</v>
       </c>
     </row>
     <row r="7">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.2481357155995</v>
+        <v>167.6743067368992</v>
       </c>
       <c r="AB7" t="n">
-        <v>194.6301748308389</v>
+        <v>229.4193837456618</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.0549441102047</v>
+        <v>207.5239197531694</v>
       </c>
       <c r="AD7" t="n">
-        <v>142248.1357155996</v>
+        <v>167674.3067368992</v>
       </c>
       <c r="AE7" t="n">
-        <v>194630.1748308389</v>
+        <v>229419.3837456618</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.268500503262827e-06</v>
+        <v>5.841739754222524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.456018518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>176054.9441102047</v>
+        <v>207523.9197531694</v>
       </c>
     </row>
     <row r="8">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.6331642804375</v>
+        <v>163.0593353017372</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.3157673150829</v>
+        <v>223.1049762299058</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.3431747854239</v>
+        <v>201.8121504283885</v>
       </c>
       <c r="AD8" t="n">
-        <v>137633.1642804375</v>
+        <v>163059.3353017372</v>
       </c>
       <c r="AE8" t="n">
-        <v>188315.7673150829</v>
+        <v>223104.9762299058</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.375527458102748e-06</v>
+        <v>6.033027354220629e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.314236111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>170343.1747854239</v>
+        <v>201812.1504283886</v>
       </c>
     </row>
     <row r="9">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.1451993164801</v>
+        <v>158.5713703377797</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.175135656359</v>
+        <v>216.964344571182</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.7885963937759</v>
+        <v>196.2575720367406</v>
       </c>
       <c r="AD9" t="n">
-        <v>133145.1993164801</v>
+        <v>158571.3703377798</v>
       </c>
       <c r="AE9" t="n">
-        <v>182175.135656359</v>
+        <v>216964.344571182</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488293393587896e-06</v>
+        <v>6.234572144435004e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>164788.596393776</v>
+        <v>196257.5720367406</v>
       </c>
     </row>
     <row r="10">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>129.9996068300489</v>
+        <v>155.4257778513486</v>
       </c>
       <c r="AB10" t="n">
-        <v>177.8711972426797</v>
+        <v>212.6604061575026</v>
       </c>
       <c r="AC10" t="n">
-        <v>160.8954198216813</v>
+        <v>192.364395464646</v>
       </c>
       <c r="AD10" t="n">
-        <v>129999.6068300489</v>
+        <v>155425.7778513486</v>
       </c>
       <c r="AE10" t="n">
-        <v>177871.1972426797</v>
+        <v>212660.4061575026</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.568085361330735e-06</v>
+        <v>6.377183078582228e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.08275462962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>160895.4198216813</v>
+        <v>192364.395464646</v>
       </c>
     </row>
     <row r="11">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.4963426786786</v>
+        <v>152.9225136999783</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.4461207945564</v>
+        <v>209.2353297093793</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.7972278626408</v>
+        <v>189.2662035056055</v>
       </c>
       <c r="AD11" t="n">
-        <v>127496.3426786786</v>
+        <v>152922.5136999782</v>
       </c>
       <c r="AE11" t="n">
-        <v>174446.1207945564</v>
+        <v>209235.3297093793</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.631063122621771e-06</v>
+        <v>6.489742244902845e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>157797.2278626408</v>
+        <v>189266.2035056055</v>
       </c>
     </row>
     <row r="12">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.844975453876</v>
+        <v>136.3563978211962</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.6629855511168</v>
+        <v>186.568839118589</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.1884830704968</v>
+        <v>168.7629709641737</v>
       </c>
       <c r="AD12" t="n">
-        <v>110844.975453876</v>
+        <v>136356.3978211962</v>
       </c>
       <c r="AE12" t="n">
-        <v>151662.9855511168</v>
+        <v>186568.839118589</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.72399433552605e-06</v>
+        <v>6.655836746124156e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.912037037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>137188.4830704968</v>
+        <v>168762.9709641737</v>
       </c>
     </row>
     <row r="13">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>112.0257812633352</v>
+        <v>137.5372036306554</v>
       </c>
       <c r="AB13" t="n">
-        <v>153.2786161530939</v>
+        <v>188.184469720566</v>
       </c>
       <c r="AC13" t="n">
-        <v>138.6499201553734</v>
+        <v>170.2244080490503</v>
       </c>
       <c r="AD13" t="n">
-        <v>112025.7812633352</v>
+        <v>137537.2036306554</v>
       </c>
       <c r="AE13" t="n">
-        <v>153278.6161530938</v>
+        <v>188184.469720566</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.696306271009607e-06</v>
+        <v>6.606350302098304e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.940972222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>138649.9201553734</v>
+        <v>170224.4080490503</v>
       </c>
     </row>
     <row r="14">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>109.7181193252333</v>
+        <v>135.2295416925536</v>
       </c>
       <c r="AB14" t="n">
-        <v>150.121171282525</v>
+        <v>185.0270248499971</v>
       </c>
       <c r="AC14" t="n">
-        <v>135.7938173917489</v>
+        <v>167.3683052854258</v>
       </c>
       <c r="AD14" t="n">
-        <v>109718.1193252333</v>
+        <v>135229.5416925536</v>
       </c>
       <c r="AE14" t="n">
-        <v>150121.1712825249</v>
+        <v>185027.0248499971</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.754199496816715e-06</v>
+        <v>6.709821957788719e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>135793.8173917489</v>
+        <v>167368.3052854258</v>
       </c>
     </row>
     <row r="15">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>107.6207852375088</v>
+        <v>133.132207604829</v>
       </c>
       <c r="AB15" t="n">
-        <v>147.251506255852</v>
+        <v>182.1573598233242</v>
       </c>
       <c r="AC15" t="n">
-        <v>133.1980291676205</v>
+        <v>164.7725170612974</v>
       </c>
       <c r="AD15" t="n">
-        <v>107620.7852375088</v>
+        <v>133132.207604829</v>
       </c>
       <c r="AE15" t="n">
-        <v>147251.506255852</v>
+        <v>182157.3598233242</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.804742800043094e-06</v>
+        <v>6.800157211974091e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH15" t="n">
-        <v>133198.0291676205</v>
+        <v>164772.5170612974</v>
       </c>
     </row>
     <row r="16">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>105.5315755400889</v>
+        <v>131.0429979074091</v>
       </c>
       <c r="AB16" t="n">
-        <v>144.3929573784166</v>
+        <v>179.2988109458888</v>
       </c>
       <c r="AC16" t="n">
-        <v>130.6122961830481</v>
+        <v>162.186784076725</v>
       </c>
       <c r="AD16" t="n">
-        <v>105531.5755400889</v>
+        <v>131042.9979074091</v>
       </c>
       <c r="AE16" t="n">
-        <v>144392.9573784166</v>
+        <v>179298.8109458888</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.853926871011393e-06</v>
+        <v>6.888063131634558e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.778935185185186</v>
       </c>
       <c r="AH16" t="n">
-        <v>130612.2961830481</v>
+        <v>162186.784076725</v>
       </c>
     </row>
     <row r="17">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>104.0869373535903</v>
+        <v>129.5983597209105</v>
       </c>
       <c r="AB17" t="n">
-        <v>142.4163396787116</v>
+        <v>177.3221932461838</v>
       </c>
       <c r="AC17" t="n">
-        <v>128.8243241024019</v>
+        <v>160.3988119960788</v>
       </c>
       <c r="AD17" t="n">
-        <v>104086.9373535903</v>
+        <v>129598.3597209106</v>
       </c>
       <c r="AE17" t="n">
-        <v>142416.3396787116</v>
+        <v>177322.1932461838</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.8784937355278e-06</v>
+        <v>6.931971103788403e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH17" t="n">
-        <v>128824.3241024019</v>
+        <v>160398.8119960788</v>
       </c>
     </row>
     <row r="18">
@@ -31664,28 +31664,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>103.3496237000319</v>
+        <v>128.8610460673521</v>
       </c>
       <c r="AB18" t="n">
-        <v>141.4075146099307</v>
+        <v>176.3133681774029</v>
       </c>
       <c r="AC18" t="n">
-        <v>127.9117798822903</v>
+        <v>159.4862677759672</v>
       </c>
       <c r="AD18" t="n">
-        <v>103349.6237000319</v>
+        <v>128861.0460673521</v>
       </c>
       <c r="AE18" t="n">
-        <v>141407.5146099307</v>
+        <v>176313.3681774029</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.900191109721593e-06</v>
+        <v>6.970750480834114e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH18" t="n">
-        <v>127911.7798822903</v>
+        <v>159486.2677759672</v>
       </c>
     </row>
     <row r="19">
@@ -31770,28 +31770,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>103.4359834948892</v>
+        <v>128.9474058622094</v>
       </c>
       <c r="AB19" t="n">
-        <v>141.5256758911797</v>
+        <v>176.4315294586519</v>
       </c>
       <c r="AC19" t="n">
-        <v>128.0186640166973</v>
+        <v>159.5931519103742</v>
       </c>
       <c r="AD19" t="n">
-        <v>103435.9834948892</v>
+        <v>128947.4058622094</v>
       </c>
       <c r="AE19" t="n">
-        <v>141525.6758911797</v>
+        <v>176431.5294586519</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.894150077463461e-06</v>
+        <v>6.959953438501202e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>128018.6640166973</v>
+        <v>159593.1519103742</v>
       </c>
     </row>
   </sheetData>
@@ -32067,28 +32067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.7239577934577</v>
+        <v>162.5762487368993</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.7575538362672</v>
+        <v>222.44399587962</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.0789381719499</v>
+        <v>201.214253115042</v>
       </c>
       <c r="AD2" t="n">
-        <v>127723.9577934577</v>
+        <v>162576.2487368993</v>
       </c>
       <c r="AE2" t="n">
-        <v>174757.5538362672</v>
+        <v>222443.99587962</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.351065416408401e-06</v>
+        <v>6.443103801558044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.736689814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>158078.9381719499</v>
+        <v>201214.253115042</v>
       </c>
     </row>
     <row r="3">
@@ -32173,28 +32173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.852989770852</v>
+        <v>139.0594929568402</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.5151716775985</v>
+        <v>190.2673331353163</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.3867061701729</v>
+        <v>172.1084859028146</v>
       </c>
       <c r="AD3" t="n">
-        <v>115852.989770852</v>
+        <v>139059.4929568402</v>
       </c>
       <c r="AE3" t="n">
-        <v>158515.1716775986</v>
+        <v>190267.3331353163</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.694179413872409e-06</v>
+        <v>7.10281014169793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>143386.7061701729</v>
+        <v>172108.4859028146</v>
       </c>
     </row>
     <row r="4">
@@ -32279,28 +32279,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.8669095073303</v>
+        <v>132.0734126933186</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.9565084569438</v>
+        <v>180.7086699146614</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.7403083516263</v>
+        <v>163.462088084268</v>
       </c>
       <c r="AD4" t="n">
-        <v>108866.9095073303</v>
+        <v>132073.4126933186</v>
       </c>
       <c r="AE4" t="n">
-        <v>148956.5084569438</v>
+        <v>180708.6699146614</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932428647405602e-06</v>
+        <v>7.560892677114758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>134740.3083516262</v>
+        <v>163462.088084268</v>
       </c>
     </row>
     <row r="5">
@@ -32385,28 +32385,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.14298372225929</v>
+        <v>115.4347382542681</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.0740953902873</v>
+        <v>157.9429015006542</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.0417606723757</v>
+        <v>142.8690526557297</v>
       </c>
       <c r="AD5" t="n">
-        <v>92142.98372225929</v>
+        <v>115434.7382542681</v>
       </c>
       <c r="AE5" t="n">
-        <v>126074.0953902873</v>
+        <v>157942.9015006542</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.110786499028517e-06</v>
+        <v>7.903821867993101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>114041.7606723757</v>
+        <v>142869.0526557297</v>
       </c>
     </row>
     <row r="6">
@@ -32491,28 +32491,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.17062611002402</v>
+        <v>111.4623806420329</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.6389404571803</v>
+        <v>152.5077465675472</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.1253292977948</v>
+        <v>137.9526212811488</v>
       </c>
       <c r="AD6" t="n">
-        <v>88170.62611002402</v>
+        <v>111462.3806420329</v>
       </c>
       <c r="AE6" t="n">
-        <v>120638.9404571803</v>
+        <v>152507.7465675472</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.248832843596438e-06</v>
+        <v>8.169244000047464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>109125.3292977948</v>
+        <v>137952.6212811488</v>
       </c>
     </row>
     <row r="7">
@@ -32597,28 +32597,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.93257531595597</v>
+        <v>110.2243298479648</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.944984741791</v>
+        <v>150.8137908521579</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.5930423384</v>
+        <v>136.4203343217539</v>
       </c>
       <c r="AD7" t="n">
-        <v>86932.57531595597</v>
+        <v>110224.3298479648</v>
       </c>
       <c r="AE7" t="n">
-        <v>118944.984741791</v>
+        <v>150813.7908521579</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.294135299143956e-06</v>
+        <v>8.256347170916318e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>107593.0423384</v>
+        <v>136420.3343217539</v>
       </c>
     </row>
     <row r="8">
@@ -32703,28 +32703,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.06975303180847</v>
+        <v>110.3615075638173</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.132677344474</v>
+        <v>151.0014834548409</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.7628218225112</v>
+        <v>136.5901138058652</v>
       </c>
       <c r="AD8" t="n">
-        <v>87069.75303180848</v>
+        <v>110361.5075638173</v>
       </c>
       <c r="AE8" t="n">
-        <v>119132.677344474</v>
+        <v>151001.4834548409</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.288321666833984e-06</v>
+        <v>8.245169282160751e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>107762.8218225112</v>
+        <v>136590.1138058652</v>
       </c>
     </row>
   </sheetData>
@@ -33000,28 +33000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.9052088396949</v>
+        <v>206.0131829572108</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.4718024231599</v>
+        <v>281.8763255821122</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.2850198761845</v>
+        <v>254.9744446845459</v>
       </c>
       <c r="AD2" t="n">
-        <v>169905.2088396949</v>
+        <v>206013.1829572108</v>
       </c>
       <c r="AE2" t="n">
-        <v>232471.8024231599</v>
+        <v>281876.3255821122</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825524972020725e-06</v>
+        <v>5.263738716908895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.422453703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>210285.0198761846</v>
+        <v>254974.4446845459</v>
       </c>
     </row>
     <row r="3">
@@ -33106,28 +33106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.3649847733971</v>
+        <v>174.5582102369337</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.3170763991913</v>
+        <v>238.8382442107929</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.2489203358914</v>
+        <v>216.043857394965</v>
       </c>
       <c r="AD3" t="n">
-        <v>138364.9847733971</v>
+        <v>174558.2102369337</v>
       </c>
       <c r="AE3" t="n">
-        <v>189317.0763991913</v>
+        <v>238838.2442107929</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198210095920488e-06</v>
+        <v>5.958022835900139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.788773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>171248.9203358914</v>
+        <v>216043.857394965</v>
       </c>
     </row>
     <row r="4">
@@ -33212,28 +33212,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.1439735157958</v>
+        <v>152.2444330485139</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.3322378773557</v>
+        <v>208.3075498472393</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.5987751747312</v>
+        <v>188.4269696513606</v>
       </c>
       <c r="AD4" t="n">
-        <v>128143.9735157958</v>
+        <v>152244.433048514</v>
       </c>
       <c r="AE4" t="n">
-        <v>175332.2378773557</v>
+        <v>208307.5498472393</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451466577843281e-06</v>
+        <v>6.429820453123734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.438657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>158598.7751747312</v>
+        <v>188426.9696513606</v>
       </c>
     </row>
     <row r="5">
@@ -33318,28 +33318,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.485497492395</v>
+        <v>145.5859570251132</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.2218172309132</v>
+        <v>199.1971292007967</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.3578402882266</v>
+        <v>180.1860347648559</v>
       </c>
       <c r="AD5" t="n">
-        <v>121485.497492395</v>
+        <v>145585.9570251132</v>
       </c>
       <c r="AE5" t="n">
-        <v>166221.8172309131</v>
+        <v>199197.1292007967</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642044198019296e-06</v>
+        <v>6.784852104880619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.207175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>150357.8402882266</v>
+        <v>180186.0347648559</v>
       </c>
     </row>
     <row r="6">
@@ -33424,28 +33424,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.2935598725373</v>
+        <v>140.3940194052555</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.1179791273053</v>
+        <v>192.0932910971888</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.9319825229254</v>
+        <v>173.7601769995547</v>
       </c>
       <c r="AD6" t="n">
-        <v>116293.5598725373</v>
+        <v>140394.0194052555</v>
       </c>
       <c r="AE6" t="n">
-        <v>159117.9791273053</v>
+        <v>192093.2910971888</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.803135225295854e-06</v>
+        <v>7.084952470518452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>143931.9825229254</v>
+        <v>173760.1769995547</v>
       </c>
     </row>
     <row r="7">
@@ -33530,28 +33530,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.5281173156527</v>
+        <v>124.7138281943915</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.5470050987485</v>
+        <v>170.6389617212813</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.419711980595</v>
+        <v>154.3534187079366</v>
       </c>
       <c r="AD7" t="n">
-        <v>100528.1173156527</v>
+        <v>124713.8281943915</v>
       </c>
       <c r="AE7" t="n">
-        <v>137547.0050987485</v>
+        <v>170638.9617212813</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.913881997909251e-06</v>
+        <v>7.291265308150511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>124419.711980595</v>
+        <v>154353.4187079366</v>
       </c>
     </row>
     <row r="8">
@@ -33636,28 +33636,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.1236319317174</v>
+        <v>121.3093428104561</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.8888380011556</v>
+        <v>165.9807946236884</v>
       </c>
       <c r="AC8" t="n">
-        <v>120.2061138130163</v>
+        <v>150.1398205403579</v>
       </c>
       <c r="AD8" t="n">
-        <v>97123.63193171739</v>
+        <v>121309.3428104561</v>
       </c>
       <c r="AE8" t="n">
-        <v>132888.8380011556</v>
+        <v>165980.7946236884</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.021875982675659e-06</v>
+        <v>7.492449910812745e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>120206.1138130163</v>
+        <v>150139.8205403579</v>
       </c>
     </row>
     <row r="9">
@@ -33742,28 +33742,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.22932934862611</v>
+        <v>117.4150402273649</v>
       </c>
       <c r="AB9" t="n">
-        <v>127.5604814024682</v>
+        <v>160.652438025001</v>
       </c>
       <c r="AC9" t="n">
-        <v>115.3862880897105</v>
+        <v>145.3199948170521</v>
       </c>
       <c r="AD9" t="n">
-        <v>93229.32934862611</v>
+        <v>117415.0402273649</v>
       </c>
       <c r="AE9" t="n">
-        <v>127560.4814024682</v>
+        <v>160652.438025001</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.142098698070027e-06</v>
+        <v>7.716415711129379e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>115386.2880897105</v>
+        <v>145319.9948170521</v>
       </c>
     </row>
     <row r="10">
@@ -33848,28 +33848,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.70206440119922</v>
+        <v>117.887775279938</v>
       </c>
       <c r="AB10" t="n">
-        <v>128.2072983569971</v>
+        <v>161.2992549795298</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.9713737419126</v>
+        <v>145.9050804692542</v>
       </c>
       <c r="AD10" t="n">
-        <v>93702.06440119923</v>
+        <v>117887.775279938</v>
       </c>
       <c r="AE10" t="n">
-        <v>128207.2983569971</v>
+        <v>161299.2549795299</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.111553340614039e-06</v>
+        <v>7.659512026945014e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.726851851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>115971.3737419126</v>
+        <v>145905.0804692542</v>
       </c>
     </row>
     <row r="11">
@@ -33954,28 +33954,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.85662676584566</v>
+        <v>117.0423376445844</v>
       </c>
       <c r="AB11" t="n">
-        <v>127.0505332862308</v>
+        <v>160.1424899087636</v>
       </c>
       <c r="AC11" t="n">
-        <v>114.9250087059699</v>
+        <v>144.8587154333115</v>
       </c>
       <c r="AD11" t="n">
-        <v>92856.62676584566</v>
+        <v>117042.3376445844</v>
       </c>
       <c r="AE11" t="n">
-        <v>127050.5332862308</v>
+        <v>160142.4899087636</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.142628080348294e-06</v>
+        <v>7.717401910162039e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>114925.0087059699</v>
+        <v>144858.7154333115</v>
       </c>
     </row>
     <row r="12">
@@ -34060,28 +34060,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>92.91190049103514</v>
+        <v>117.0976113697739</v>
       </c>
       <c r="AB12" t="n">
-        <v>127.1261612355396</v>
+        <v>160.2181178580724</v>
       </c>
       <c r="AC12" t="n">
-        <v>114.9934188299412</v>
+        <v>144.9271255572828</v>
       </c>
       <c r="AD12" t="n">
-        <v>92911.90049103514</v>
+        <v>117097.6113697739</v>
       </c>
       <c r="AE12" t="n">
-        <v>127126.1612355396</v>
+        <v>160218.1178580724</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.142363389209162e-06</v>
+        <v>7.71690881064571e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>114993.4188299412</v>
+        <v>144927.1255572828</v>
       </c>
     </row>
   </sheetData>
@@ -34357,28 +34357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.357969686811</v>
+        <v>124.5136853190082</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.0506898403551</v>
+        <v>170.3651174095015</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.684448564407</v>
+        <v>154.1057097129301</v>
       </c>
       <c r="AD2" t="n">
-        <v>102357.969686811</v>
+        <v>124513.6853190082</v>
       </c>
       <c r="AE2" t="n">
-        <v>140050.6898403551</v>
+        <v>170365.1174095015</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.010578118918845e-06</v>
+        <v>8.039193231250762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>126684.4485644071</v>
+        <v>154105.7097129301</v>
       </c>
     </row>
     <row r="3">
@@ -34463,28 +34463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.62826622304397</v>
+        <v>105.8692332012617</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.4238832650422</v>
+        <v>144.8549554868378</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.5034284411849</v>
+        <v>131.0302018404201</v>
       </c>
       <c r="AD3" t="n">
-        <v>83628.26622304396</v>
+        <v>105869.2332012617</v>
       </c>
       <c r="AE3" t="n">
-        <v>114423.8832650422</v>
+        <v>144854.9554868378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.322590879412789e-06</v>
+        <v>8.664621984376001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.833912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>103503.4284411849</v>
+        <v>131030.2018404201</v>
       </c>
     </row>
     <row r="4">
@@ -34569,28 +34569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.22144750002286</v>
+        <v>103.4624144782406</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.1307677068582</v>
+        <v>141.5618399286539</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.5246032099563</v>
+        <v>128.0513766091915</v>
       </c>
       <c r="AD4" t="n">
-        <v>81221.44750002286</v>
+        <v>103462.4144782406</v>
       </c>
       <c r="AE4" t="n">
-        <v>111130.7677068582</v>
+        <v>141561.8399286538</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.430088667857563e-06</v>
+        <v>8.88010101697807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>100524.6032099563</v>
+        <v>128051.3766091915</v>
       </c>
     </row>
     <row r="5">
@@ -34675,28 +34675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.26850523300003</v>
+        <v>103.5094722112178</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.1951541731582</v>
+        <v>141.6262263949538</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.5828447222796</v>
+        <v>128.1096181215148</v>
       </c>
       <c r="AD5" t="n">
-        <v>81268.50523300003</v>
+        <v>103509.4722112178</v>
       </c>
       <c r="AE5" t="n">
-        <v>111195.1541731582</v>
+        <v>141626.2263949538</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.428485078045921e-06</v>
+        <v>8.876886625442184e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>100582.8447222796</v>
+        <v>128109.6181215148</v>
       </c>
     </row>
   </sheetData>
@@ -34972,28 +34972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.6050883111769</v>
+        <v>97.8955863249207</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.8144614052885</v>
+        <v>133.9450600581602</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.81111631681476</v>
+        <v>121.1615315193176</v>
       </c>
       <c r="AD2" t="n">
-        <v>76605.08831117689</v>
+        <v>97895.5863249207</v>
       </c>
       <c r="AE2" t="n">
-        <v>104814.4614052885</v>
+        <v>133945.0600581602</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.501394348129386e-06</v>
+        <v>9.417198484112516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.833912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>94811.11631681476</v>
+        <v>121161.5315193176</v>
       </c>
     </row>
     <row r="3">
@@ -35078,28 +35078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.70067050546626</v>
+        <v>97.99116851921006</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.945241180304</v>
+        <v>134.0758398331756</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.92941465365334</v>
+        <v>121.2798298561562</v>
       </c>
       <c r="AD3" t="n">
-        <v>76700.67050546626</v>
+        <v>97991.16851921007</v>
       </c>
       <c r="AE3" t="n">
-        <v>104945.241180304</v>
+        <v>134075.8398331756</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50026085629841e-06</v>
+        <v>9.414827148315897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>94929.41465365334</v>
+        <v>121279.8298561562</v>
       </c>
     </row>
   </sheetData>
@@ -61620,28 +61620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.5788498131294</v>
+        <v>294.1661734466923</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.2753282546109</v>
+        <v>402.4911362054182</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.4679986809511</v>
+        <v>364.0779470658298</v>
       </c>
       <c r="AD2" t="n">
-        <v>243578.8498131293</v>
+        <v>294166.1734466923</v>
       </c>
       <c r="AE2" t="n">
-        <v>333275.3282546109</v>
+        <v>402491.1362054182</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197462775828195e-06</v>
+        <v>3.947753657934789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.672453703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>301467.9986809511</v>
+        <v>364077.9470658298</v>
       </c>
     </row>
     <row r="3">
@@ -61726,28 +61726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.1439238026575</v>
+        <v>231.1484221687556</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.2680374552172</v>
+        <v>316.2674687598233</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.0466668630886</v>
+        <v>286.0833454256597</v>
       </c>
       <c r="AD3" t="n">
-        <v>193143.9238026575</v>
+        <v>231148.4221687556</v>
       </c>
       <c r="AE3" t="n">
-        <v>264268.0374552172</v>
+        <v>316267.4687598232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.585342723000414e-06</v>
+        <v>4.64458206255319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.671296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>239046.6668630886</v>
+        <v>286083.3454256597</v>
       </c>
     </row>
     <row r="4">
@@ -61832,28 +61832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.4556812723539</v>
+        <v>199.7921030249704</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.6979595581963</v>
+        <v>273.3643695641486</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.9169613127214</v>
+        <v>247.2748578023288</v>
       </c>
       <c r="AD4" t="n">
-        <v>174455.6812723539</v>
+        <v>199792.1030249704</v>
       </c>
       <c r="AE4" t="n">
-        <v>238697.9595581962</v>
+        <v>273364.3695641486</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859974899835611e-06</v>
+        <v>5.137960240610896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.127314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>215916.9613127215</v>
+        <v>247274.8578023288</v>
       </c>
     </row>
     <row r="5">
@@ -61938,28 +61938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.1908645706359</v>
+        <v>188.1100220821624</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.4977668587607</v>
+        <v>257.3804310411691</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.8853484077463</v>
+        <v>232.8164039383787</v>
       </c>
       <c r="AD5" t="n">
-        <v>150190.8645706359</v>
+        <v>188110.0220821624</v>
       </c>
       <c r="AE5" t="n">
-        <v>205497.7668587607</v>
+        <v>257380.4310411691</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.073904244964431e-06</v>
+        <v>5.522285456064702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.768518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>185885.3484077463</v>
+        <v>232816.4039383787</v>
       </c>
     </row>
     <row r="6">
@@ -62044,28 +62044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>143.0998914846912</v>
+        <v>168.5215645833283</v>
       </c>
       <c r="AB6" t="n">
-        <v>195.7955846509221</v>
+        <v>230.5786393095237</v>
       </c>
       <c r="AC6" t="n">
-        <v>177.1091288527225</v>
+        <v>208.572537593042</v>
       </c>
       <c r="AD6" t="n">
-        <v>143099.8914846912</v>
+        <v>168521.5645833283</v>
       </c>
       <c r="AE6" t="n">
-        <v>195795.584650922</v>
+        <v>230578.6393095237</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.224951942223789e-06</v>
+        <v>5.793643453996441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.545717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>177109.1288527225</v>
+        <v>208572.537593042</v>
       </c>
     </row>
     <row r="7">
@@ -62150,28 +62150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.3463305169264</v>
+        <v>162.5974114149712</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.9233087056346</v>
+        <v>222.4729515893894</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.9881718748421</v>
+        <v>201.2404453325106</v>
       </c>
       <c r="AD7" t="n">
-        <v>137346.3305169264</v>
+        <v>162597.4114149712</v>
       </c>
       <c r="AE7" t="n">
-        <v>187923.3087056346</v>
+        <v>222472.9515893894</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.358214419175185e-06</v>
+        <v>6.033050208293814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>169988.1718748421</v>
+        <v>201240.4453325106</v>
       </c>
     </row>
     <row r="8">
@@ -62256,28 +62256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.1155739844456</v>
+        <v>158.3666548824905</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.1346009700921</v>
+        <v>216.6842438538468</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.7519302810755</v>
+        <v>196.0042037387441</v>
       </c>
       <c r="AD8" t="n">
-        <v>133115.5739844456</v>
+        <v>158366.6548824905</v>
       </c>
       <c r="AE8" t="n">
-        <v>182134.6009700921</v>
+        <v>216684.2438538468</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.464368369446354e-06</v>
+        <v>6.223756349074422e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>164751.9302810755</v>
+        <v>196004.2037387441</v>
       </c>
     </row>
     <row r="9">
@@ -62362,28 +62362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.5900705251533</v>
+        <v>154.8411514231981</v>
       </c>
       <c r="AB9" t="n">
-        <v>177.3108516028551</v>
+        <v>211.8604944866099</v>
       </c>
       <c r="AC9" t="n">
-        <v>160.3885527832714</v>
+        <v>191.6408262409399</v>
       </c>
       <c r="AD9" t="n">
-        <v>129590.0705251533</v>
+        <v>154841.1514231981</v>
       </c>
       <c r="AE9" t="n">
-        <v>177310.8516028551</v>
+        <v>211860.4944866099</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.557804113742314e-06</v>
+        <v>6.391614164635012e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.120370370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>160388.5527832714</v>
+        <v>191640.8262409399</v>
       </c>
     </row>
     <row r="10">
@@ -62468,28 +62468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>126.5439664780531</v>
+        <v>151.795047376098</v>
       </c>
       <c r="AB10" t="n">
-        <v>173.1430376609887</v>
+        <v>207.6926805447434</v>
       </c>
       <c r="AC10" t="n">
-        <v>156.6185091544517</v>
+        <v>187.8707826121203</v>
       </c>
       <c r="AD10" t="n">
-        <v>126543.9664780531</v>
+        <v>151795.047376098</v>
       </c>
       <c r="AE10" t="n">
-        <v>173143.0376609887</v>
+        <v>207692.6805447434</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.636950877619911e-06</v>
+        <v>6.533801750267141e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>156618.5091544517</v>
+        <v>187870.7826121203</v>
       </c>
     </row>
     <row r="11">
@@ -62574,28 +62574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.2892581435346</v>
+        <v>135.6255903876</v>
       </c>
       <c r="AB11" t="n">
-        <v>150.9026286105907</v>
+        <v>185.5689161469948</v>
       </c>
       <c r="AC11" t="n">
-        <v>136.5006935292066</v>
+        <v>167.8584792375873</v>
       </c>
       <c r="AD11" t="n">
-        <v>110289.2581435346</v>
+        <v>135625.5903876</v>
       </c>
       <c r="AE11" t="n">
-        <v>150902.6286105907</v>
+        <v>185568.9161469947</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.73145069492575e-06</v>
+        <v>6.703571178694747e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>136500.6935292066</v>
+        <v>167858.4792375873</v>
       </c>
     </row>
     <row r="12">
@@ -62680,28 +62680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.4198238060386</v>
+        <v>132.756156050104</v>
       </c>
       <c r="AB12" t="n">
-        <v>146.976541959522</v>
+        <v>181.642829495926</v>
       </c>
       <c r="AC12" t="n">
-        <v>132.9493070778174</v>
+        <v>164.3070927861981</v>
       </c>
       <c r="AD12" t="n">
-        <v>107419.8238060386</v>
+        <v>132756.156050104</v>
       </c>
       <c r="AE12" t="n">
-        <v>146976.541959522</v>
+        <v>181642.829495926</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.804466371460716e-06</v>
+        <v>6.834744233045513e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>132949.3070778174</v>
+        <v>164307.0927861981</v>
       </c>
     </row>
     <row r="13">
@@ -62786,28 +62786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>108.7415741815718</v>
+        <v>134.0779064256372</v>
       </c>
       <c r="AB13" t="n">
-        <v>148.7850191348367</v>
+        <v>183.4513066712407</v>
       </c>
       <c r="AC13" t="n">
-        <v>134.5851857297343</v>
+        <v>165.942971438115</v>
       </c>
       <c r="AD13" t="n">
-        <v>108741.5741815718</v>
+        <v>134077.9064256372</v>
       </c>
       <c r="AE13" t="n">
-        <v>148785.0191348367</v>
+        <v>183451.3066712407</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.766210413248434e-06</v>
+        <v>6.76601719901718e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.891782407407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>134585.1857297343</v>
+        <v>165942.971438115</v>
       </c>
     </row>
     <row r="14">
@@ -62892,28 +62892,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.9179065061165</v>
+        <v>131.2542387501819</v>
       </c>
       <c r="AB14" t="n">
-        <v>144.9215524498547</v>
+        <v>179.5878399862587</v>
       </c>
       <c r="AC14" t="n">
-        <v>131.0904428827562</v>
+        <v>162.448228591137</v>
       </c>
       <c r="AD14" t="n">
-        <v>105917.9065061165</v>
+        <v>131254.2387501819</v>
       </c>
       <c r="AE14" t="n">
-        <v>144921.5524498547</v>
+        <v>179587.8399862587</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.831574898140943e-06</v>
+        <v>6.883444846562279e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.825231481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>131090.4428827562</v>
+        <v>162448.228591137</v>
       </c>
     </row>
     <row r="15">
@@ -62998,28 +62998,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>103.822417459848</v>
+        <v>129.1587497039134</v>
       </c>
       <c r="AB15" t="n">
-        <v>142.0544118902994</v>
+        <v>176.7206994267034</v>
       </c>
       <c r="AC15" t="n">
-        <v>128.4969381941468</v>
+        <v>159.8547239025276</v>
       </c>
       <c r="AD15" t="n">
-        <v>103822.417459848</v>
+        <v>129158.7497039134</v>
       </c>
       <c r="AE15" t="n">
-        <v>142054.4118902994</v>
+        <v>176720.6994267034</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.88183968032185e-06</v>
+        <v>6.973745797232619e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>128496.9381941469</v>
+        <v>159854.7239025276</v>
       </c>
     </row>
     <row r="16">
@@ -63104,28 +63104,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>102.130163942557</v>
+        <v>127.4664961866224</v>
       </c>
       <c r="AB16" t="n">
-        <v>139.7389959709869</v>
+        <v>174.4052835073909</v>
       </c>
       <c r="AC16" t="n">
-        <v>126.4025023204661</v>
+        <v>157.7602880288469</v>
       </c>
       <c r="AD16" t="n">
-        <v>102130.163942557</v>
+        <v>127466.4961866224</v>
       </c>
       <c r="AE16" t="n">
-        <v>139738.9959709869</v>
+        <v>174405.2835073909</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.930178997056312e-06</v>
+        <v>7.060587638905507e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.729745370370371</v>
       </c>
       <c r="AH16" t="n">
-        <v>126402.5023204661</v>
+        <v>157760.2880288469</v>
       </c>
     </row>
     <row r="17">
@@ -63210,28 +63210,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>101.863825003819</v>
+        <v>127.2001572478845</v>
       </c>
       <c r="AB17" t="n">
-        <v>139.374579284961</v>
+        <v>174.0408668213651</v>
       </c>
       <c r="AC17" t="n">
-        <v>126.0728650514925</v>
+        <v>157.4306507598732</v>
       </c>
       <c r="AD17" t="n">
-        <v>101863.825003819</v>
+        <v>127200.1572478845</v>
       </c>
       <c r="AE17" t="n">
-        <v>139374.579284961</v>
+        <v>174040.8668213651</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.922933166560474e-06</v>
+        <v>7.047570465572988e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>126072.8650514925</v>
+        <v>157430.6507598732</v>
       </c>
     </row>
     <row r="18">
@@ -63316,28 +63316,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>101.3316560171127</v>
+        <v>126.6679882611781</v>
       </c>
       <c r="AB18" t="n">
-        <v>138.6464421997111</v>
+        <v>173.3127297361151</v>
       </c>
       <c r="AC18" t="n">
-        <v>125.4142203477117</v>
+        <v>156.7720060560925</v>
       </c>
       <c r="AD18" t="n">
-        <v>101331.6560171127</v>
+        <v>126667.9882611781</v>
       </c>
       <c r="AE18" t="n">
-        <v>138646.4421997111</v>
+        <v>173312.7297361151</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.947457515930998e-06</v>
+        <v>7.091628590698436e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>125414.2203477117</v>
+        <v>156772.0060560925</v>
       </c>
     </row>
     <row r="19">
@@ -63422,28 +63422,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>101.4111918760969</v>
+        <v>126.7475241201623</v>
       </c>
       <c r="AB19" t="n">
-        <v>138.7552666708477</v>
+        <v>173.4215542072516</v>
       </c>
       <c r="AC19" t="n">
-        <v>125.5126587640591</v>
+        <v>156.8704444724399</v>
       </c>
       <c r="AD19" t="n">
-        <v>101411.1918760969</v>
+        <v>126747.5241201623</v>
       </c>
       <c r="AE19" t="n">
-        <v>138755.2666708477</v>
+        <v>173421.5542072516</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.947052154784378e-06</v>
+        <v>7.090900357225288e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>125512.6587640591</v>
+        <v>156870.4444724399</v>
       </c>
     </row>
   </sheetData>
@@ -63719,28 +63719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.13630926854766</v>
+        <v>104.761783168086</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4365690043204</v>
+        <v>143.3396934942002</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.75560522569218</v>
+        <v>129.6595543256758</v>
       </c>
       <c r="AD2" t="n">
-        <v>74136.30926854766</v>
+        <v>104761.783168086</v>
       </c>
       <c r="AE2" t="n">
-        <v>101436.5690043204</v>
+        <v>143339.6934942002</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464064380549602e-06</v>
+        <v>9.704232110670078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.998842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>91755.60522569218</v>
+        <v>129659.5543256758</v>
       </c>
     </row>
   </sheetData>
@@ -64016,28 +64016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.6741984094319</v>
+        <v>109.1259895779816</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3819973581861</v>
+        <v>149.3109932394148</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.84729445245536</v>
+        <v>135.0609616039809</v>
       </c>
       <c r="AD2" t="n">
-        <v>80674.19840943189</v>
+        <v>109125.9895779816</v>
       </c>
       <c r="AE2" t="n">
-        <v>110381.9973581861</v>
+        <v>149310.9932394148</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079853725574484e-06</v>
+        <v>9.704042093508948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>99847.29445245536</v>
+        <v>135060.9616039809</v>
       </c>
     </row>
   </sheetData>
@@ -64313,28 +64313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8103722109488</v>
+        <v>143.9422256678272</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2980810364135</v>
+        <v>196.9481034414496</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.5222641796577</v>
+        <v>178.1516528674527</v>
       </c>
       <c r="AD2" t="n">
-        <v>120810.3722109488</v>
+        <v>143942.2256678272</v>
       </c>
       <c r="AE2" t="n">
-        <v>165298.0810364135</v>
+        <v>196948.1034414496</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506217339137532e-06</v>
+        <v>6.804088915220437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>149522.2641796577</v>
+        <v>178151.6528674527</v>
       </c>
     </row>
     <row r="3">
@@ -64419,28 +64419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6109670256733</v>
+        <v>133.5722282819596</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3428048959269</v>
+        <v>182.7594155261161</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.8988600076617</v>
+        <v>165.3171134128056</v>
       </c>
       <c r="AD3" t="n">
-        <v>110610.9670256733</v>
+        <v>133572.2282819596</v>
       </c>
       <c r="AE3" t="n">
-        <v>151342.8048959269</v>
+        <v>182759.4155261161</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831762614618381e-06</v>
+        <v>7.435834978300053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>136898.8600076617</v>
+        <v>165317.1134128056</v>
       </c>
     </row>
     <row r="4">
@@ -64525,28 +64525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.28666916884939</v>
+        <v>115.3331817711562</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.2706921572663</v>
+        <v>157.8039474401048</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.2195945198396</v>
+        <v>142.7433601756958</v>
       </c>
       <c r="AD4" t="n">
-        <v>92286.66916884939</v>
+        <v>115333.1817711562</v>
       </c>
       <c r="AE4" t="n">
-        <v>126270.6921572663</v>
+        <v>157803.9474401048</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.080089902346924e-06</v>
+        <v>7.917733498086666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>114219.5945198396</v>
+        <v>142743.3601756958</v>
       </c>
     </row>
     <row r="5">
@@ -64631,28 +64631,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.79658579865342</v>
+        <v>110.8430984009603</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.1271620016694</v>
+        <v>151.6604172845078</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.6623942597922</v>
+        <v>137.1861599156483</v>
       </c>
       <c r="AD5" t="n">
-        <v>87796.58579865342</v>
+        <v>110843.0984009603</v>
       </c>
       <c r="AE5" t="n">
-        <v>120127.1620016694</v>
+        <v>151660.4172845078</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.246103036703926e-06</v>
+        <v>8.239894966701541e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>108662.3942597922</v>
+        <v>137186.1599156483</v>
       </c>
     </row>
     <row r="6">
@@ -64737,28 +64737,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.55570734528479</v>
+        <v>108.6022199475917</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.0610932411918</v>
+        <v>148.5943485240303</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.8889467985591</v>
+        <v>134.4127124544152</v>
       </c>
       <c r="AD6" t="n">
-        <v>85555.70734528478</v>
+        <v>108602.2199475917</v>
       </c>
       <c r="AE6" t="n">
-        <v>117061.0932411918</v>
+        <v>148594.3485240303</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.330411341839514e-06</v>
+        <v>8.403501825304088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>105888.9467985591</v>
+        <v>134412.7124544152</v>
       </c>
     </row>
     <row r="7">
@@ -64843,28 +64843,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.54789424619283</v>
+        <v>108.5944068484997</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.0504030143246</v>
+        <v>148.5836582971631</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.8792768319403</v>
+        <v>134.4030424877964</v>
       </c>
       <c r="AD7" t="n">
-        <v>85547.89424619282</v>
+        <v>108594.4068484997</v>
       </c>
       <c r="AE7" t="n">
-        <v>117050.4030143246</v>
+        <v>148583.6582971631</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.326367645206861e-06</v>
+        <v>8.395654715791613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>105879.2768319403</v>
+        <v>134403.0424877964</v>
       </c>
     </row>
   </sheetData>
@@ -65140,28 +65140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.4914873815069</v>
+        <v>185.4652382983065</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.9597775368792</v>
+        <v>253.7617211884735</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.8716864878184</v>
+        <v>229.543058675132</v>
       </c>
       <c r="AD2" t="n">
-        <v>161491.4873815069</v>
+        <v>185465.2382983065</v>
       </c>
       <c r="AE2" t="n">
-        <v>220959.7775368792</v>
+        <v>253761.7211884735</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.950926835884104e-06</v>
+        <v>5.537096183921368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>199871.6864878184</v>
+        <v>229543.0586751321</v>
       </c>
     </row>
     <row r="3">
@@ -65246,28 +65246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.4981370345549</v>
+        <v>168.3732882923562</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.2897964958563</v>
+        <v>230.3757611467276</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.98775276017</v>
+        <v>208.3890218373619</v>
       </c>
       <c r="AD3" t="n">
-        <v>132498.1370345549</v>
+        <v>168373.2882923562</v>
       </c>
       <c r="AE3" t="n">
-        <v>181289.7964958563</v>
+        <v>230375.7611467276</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.313847653444223e-06</v>
+        <v>6.218077985822158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163987.75276017</v>
+        <v>208389.0218373619</v>
       </c>
     </row>
     <row r="4">
@@ -65352,28 +65352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.2864647684198</v>
+        <v>147.1748748306478</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.6859801110377</v>
+        <v>201.3711566404344</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.5868269215471</v>
+        <v>182.1525760769219</v>
       </c>
       <c r="AD4" t="n">
-        <v>123286.4647684198</v>
+        <v>147174.8748306478</v>
       </c>
       <c r="AE4" t="n">
-        <v>168685.9801110377</v>
+        <v>201371.1566404344</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561684299411517e-06</v>
+        <v>6.683116742437156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.33738425925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>152586.8269215471</v>
+        <v>182152.5760769219</v>
       </c>
     </row>
     <row r="5">
@@ -65458,28 +65458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.5710779622936</v>
+        <v>141.4594880245216</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.8659357378294</v>
+        <v>193.551112267226</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.5131166078141</v>
+        <v>175.0788657631889</v>
       </c>
       <c r="AD5" t="n">
-        <v>117571.0779622936</v>
+        <v>141459.4880245216</v>
       </c>
       <c r="AE5" t="n">
-        <v>160865.9357378294</v>
+        <v>193551.112267226</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.733349742752206e-06</v>
+        <v>7.0052284463514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>145513.1166078141</v>
+        <v>175078.8657631889</v>
       </c>
     </row>
     <row r="6">
@@ -65564,28 +65564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.1946183362794</v>
+        <v>124.168279744528</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.0906970822336</v>
+        <v>169.8925182642796</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.0069533607438</v>
+        <v>153.6782147668308</v>
       </c>
       <c r="AD6" t="n">
-        <v>100194.6183362794</v>
+        <v>124168.279744528</v>
       </c>
       <c r="AE6" t="n">
-        <v>137090.6970822336</v>
+        <v>169892.5182642796</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.903146936554049e-06</v>
+        <v>7.323834581348665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>124006.9533607438</v>
+        <v>153678.2147668308</v>
       </c>
     </row>
     <row r="7">
@@ -65670,28 +65670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.46459067367105</v>
+        <v>120.4382520819197</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.9871086770488</v>
+        <v>164.7889298590947</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.3904442700169</v>
+        <v>149.0617056761039</v>
       </c>
       <c r="AD7" t="n">
-        <v>96464.59067367106</v>
+        <v>120438.2520819197</v>
       </c>
       <c r="AE7" t="n">
-        <v>131987.1086770488</v>
+        <v>164788.9298590947</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.022608149923595e-06</v>
+        <v>7.547990673811375e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.839699074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>119390.4442700169</v>
+        <v>149061.7056761039</v>
       </c>
     </row>
     <row r="8">
@@ -65776,28 +65776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.69840790308569</v>
+        <v>116.6720693113343</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.8340512580791</v>
+        <v>159.635872440125</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.7291874187505</v>
+        <v>144.4004488248376</v>
       </c>
       <c r="AD8" t="n">
-        <v>92698.4079030857</v>
+        <v>116672.0693113343</v>
       </c>
       <c r="AE8" t="n">
-        <v>126834.0512580791</v>
+        <v>159635.872440125</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.146873433535884e-06</v>
+        <v>7.781161086346313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>114729.1874187505</v>
+        <v>144400.4488248376</v>
       </c>
     </row>
     <row r="9">
@@ -65882,28 +65882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.56078299516979</v>
+        <v>116.5344444034184</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.6457467874862</v>
+        <v>159.4475679695322</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.5588544625439</v>
+        <v>144.230115868631</v>
       </c>
       <c r="AD9" t="n">
-        <v>92560.78299516979</v>
+        <v>116534.4444034184</v>
       </c>
       <c r="AE9" t="n">
-        <v>126645.7467874862</v>
+        <v>159447.5679695322</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.135984207652334e-06</v>
+        <v>7.760728627515933e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>114558.8544625439</v>
+        <v>144230.115868631</v>
       </c>
     </row>
     <row r="10">
@@ -65988,28 +65988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.01910598959311</v>
+        <v>114.9927673978417</v>
       </c>
       <c r="AB10" t="n">
-        <v>124.536356294468</v>
+        <v>157.3381774765139</v>
       </c>
       <c r="AC10" t="n">
-        <v>112.6507812376305</v>
+        <v>142.3220426437176</v>
       </c>
       <c r="AD10" t="n">
-        <v>91019.10598959311</v>
+        <v>114992.7673978417</v>
       </c>
       <c r="AE10" t="n">
-        <v>124536.356294468</v>
+        <v>157338.1774765139</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.192672236516702e-06</v>
+        <v>7.867097604368209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.683449074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>112650.7812376305</v>
+        <v>142322.0426437176</v>
       </c>
     </row>
   </sheetData>
@@ -66285,28 +66285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.879147238098</v>
+        <v>246.9706561720662</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.1659084655263</v>
+        <v>337.9161473508416</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.7591972015449</v>
+        <v>305.6659045160696</v>
       </c>
       <c r="AD2" t="n">
-        <v>209879.147238098</v>
+        <v>246970.6561720662</v>
       </c>
       <c r="AE2" t="n">
-        <v>287165.9084655264</v>
+        <v>337916.1473508417</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.492140073069627e-06</v>
+        <v>4.553225286411772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.006944444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>259759.1972015449</v>
+        <v>305665.9045160696</v>
       </c>
     </row>
     <row r="3">
@@ -66391,28 +66391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.0866774268205</v>
+        <v>194.8712737886974</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.7200957498942</v>
+        <v>266.6314739114189</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.5096164362972</v>
+        <v>241.184540261015</v>
       </c>
       <c r="AD3" t="n">
-        <v>170086.6774268205</v>
+        <v>194871.2737886973</v>
       </c>
       <c r="AE3" t="n">
-        <v>232720.0957498942</v>
+        <v>266631.4739114189</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.87853482128454e-06</v>
+        <v>5.259181728074311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.199652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>210509.6164362972</v>
+        <v>241184.540261015</v>
       </c>
     </row>
     <row r="4">
@@ -66497,28 +66497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.8718388701646</v>
+        <v>180.9632582955817</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.8517971196413</v>
+        <v>247.6019135354083</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.064537885831</v>
+        <v>223.971134419129</v>
       </c>
       <c r="AD4" t="n">
-        <v>143871.8388701646</v>
+        <v>180963.2582955817</v>
       </c>
       <c r="AE4" t="n">
-        <v>196851.7971196413</v>
+        <v>247601.9135354083</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144443109653084e-06</v>
+        <v>5.74500528010878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.759837962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>178064.537885831</v>
+        <v>223971.1344191291</v>
       </c>
     </row>
     <row r="5">
@@ -66603,28 +66603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.5382410474738</v>
+        <v>160.2374965547791</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.4494009262531</v>
+        <v>219.2440119655803</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.7503703817726</v>
+        <v>198.3196711745516</v>
       </c>
       <c r="AD5" t="n">
-        <v>135538.2410474738</v>
+        <v>160237.4965547791</v>
       </c>
       <c r="AE5" t="n">
-        <v>185449.4009262531</v>
+        <v>219244.0119655803</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335907423904443e-06</v>
+        <v>6.094817141213755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>167750.3703817726</v>
+        <v>198319.6711745516</v>
       </c>
     </row>
     <row r="6">
@@ -66709,28 +66709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.0260425629416</v>
+        <v>153.7252980702469</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.5391236618</v>
+        <v>210.3337347011272</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.6904774737833</v>
+        <v>190.2597782665624</v>
       </c>
       <c r="AD6" t="n">
-        <v>129026.0425629416</v>
+        <v>153725.2980702469</v>
       </c>
       <c r="AE6" t="n">
-        <v>176539.1236618</v>
+        <v>210333.7347011272</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.503367565820587e-06</v>
+        <v>6.40077255715453e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.273726851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>159690.4774737833</v>
+        <v>190259.7782665624</v>
       </c>
     </row>
     <row r="7">
@@ -66815,28 +66815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.716926618419</v>
+        <v>149.4161821257242</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.6432011217285</v>
+        <v>204.4378121610557</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.3572535059551</v>
+        <v>184.9265542987342</v>
       </c>
       <c r="AD7" t="n">
-        <v>124716.9266184189</v>
+        <v>149416.1821257242</v>
       </c>
       <c r="AE7" t="n">
-        <v>170643.2011217285</v>
+        <v>204437.8121610557</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.623802292536923e-06</v>
+        <v>6.620810928581815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>154357.2535059551</v>
+        <v>184926.5542987342</v>
       </c>
     </row>
     <row r="8">
@@ -66921,28 +66921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.3810501266221</v>
+        <v>146.0803056339273</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.0789077371701</v>
+        <v>199.8735187764973</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.2285698759916</v>
+        <v>180.7978706687706</v>
       </c>
       <c r="AD8" t="n">
-        <v>121381.0501266221</v>
+        <v>146080.3056339273</v>
       </c>
       <c r="AE8" t="n">
-        <v>166078.9077371701</v>
+        <v>199873.5187764973</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.716249395905521e-06</v>
+        <v>6.789714953384461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>150228.5698759916</v>
+        <v>180797.8706687706</v>
       </c>
     </row>
     <row r="9">
@@ -67027,28 +67027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.4192792039837</v>
+        <v>130.2037860573095</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.2393085771929</v>
+        <v>178.1505642691692</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.4733114077657</v>
+        <v>161.1481244512569</v>
       </c>
       <c r="AD9" t="n">
-        <v>105419.2792039837</v>
+        <v>130203.7860573095</v>
       </c>
       <c r="AE9" t="n">
-        <v>144239.3085771929</v>
+        <v>178150.5642691692</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.819043125280675e-06</v>
+        <v>6.977522618344089e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.920717592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>130473.3114077657</v>
+        <v>161148.1244512569</v>
       </c>
     </row>
     <row r="10">
@@ -67133,28 +67133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.6214519002379</v>
+        <v>126.4059587535638</v>
       </c>
       <c r="AB10" t="n">
-        <v>139.0429537118949</v>
+        <v>172.9542094038713</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.7728893576802</v>
+        <v>156.4477024011715</v>
       </c>
       <c r="AD10" t="n">
-        <v>101621.4519002379</v>
+        <v>126405.9587535638</v>
       </c>
       <c r="AE10" t="n">
-        <v>139042.9537118949</v>
+        <v>172954.2094038713</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.930993618671635e-06</v>
+        <v>7.182060004842648e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>125772.8893576802</v>
+        <v>156447.7024011715</v>
       </c>
     </row>
     <row r="11">
@@ -67239,28 +67239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.5868659496586</v>
+        <v>127.3713728029845</v>
       </c>
       <c r="AB11" t="n">
-        <v>140.3638758053736</v>
+        <v>174.27513149735</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.9677445004835</v>
+        <v>157.6425575439748</v>
       </c>
       <c r="AD11" t="n">
-        <v>102586.8659496586</v>
+        <v>127371.3728029845</v>
       </c>
       <c r="AE11" t="n">
-        <v>140363.8758053736</v>
+        <v>174275.13149735</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.891728172976747e-06</v>
+        <v>7.110320690446897e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>126967.7445004835</v>
+        <v>157642.5575439747</v>
       </c>
     </row>
     <row r="12">
@@ -67345,28 +67345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>98.99714321279633</v>
+        <v>123.7816500661222</v>
       </c>
       <c r="AB12" t="n">
-        <v>135.4522587894109</v>
+        <v>169.3635144813873</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.524885319025</v>
+        <v>153.1996983625162</v>
       </c>
       <c r="AD12" t="n">
-        <v>98997.14321279633</v>
+        <v>123781.6500661222</v>
       </c>
       <c r="AE12" t="n">
-        <v>135452.2587894109</v>
+        <v>169363.5144813873</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.99338377349118e-06</v>
+        <v>7.296048954989257e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.747106481481481</v>
       </c>
       <c r="AH12" t="n">
-        <v>122524.885319025</v>
+        <v>153199.6983625162</v>
       </c>
     </row>
     <row r="13">
@@ -67451,28 +67451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>97.20664203453448</v>
+        <v>121.9911488878603</v>
       </c>
       <c r="AB13" t="n">
-        <v>133.0024160859772</v>
+        <v>166.9136717779536</v>
       </c>
       <c r="AC13" t="n">
-        <v>120.3088521648304</v>
+        <v>150.9836652083216</v>
       </c>
       <c r="AD13" t="n">
-        <v>97206.64203453448</v>
+        <v>121991.1488878603</v>
       </c>
       <c r="AE13" t="n">
-        <v>133002.4160859772</v>
+        <v>166913.6717779536</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.039477992350397e-06</v>
+        <v>7.380264671888618e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH13" t="n">
-        <v>120308.8521648304</v>
+        <v>150983.6652083216</v>
       </c>
     </row>
     <row r="14">
@@ -67557,28 +67557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>97.27794945015145</v>
+        <v>122.0624563034773</v>
       </c>
       <c r="AB14" t="n">
-        <v>133.0999820378855</v>
+        <v>167.0112377298619</v>
       </c>
       <c r="AC14" t="n">
-        <v>120.3971065592232</v>
+        <v>151.0719196027145</v>
       </c>
       <c r="AD14" t="n">
-        <v>97277.94945015146</v>
+        <v>122062.4563034773</v>
       </c>
       <c r="AE14" t="n">
-        <v>133099.9820378855</v>
+        <v>167011.2377298619</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.033166550486396e-06</v>
+        <v>7.368733451392857e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>120397.1065592232</v>
+        <v>151071.9196027145</v>
       </c>
     </row>
     <row r="15">
@@ -67663,28 +67663,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>97.31781344952222</v>
+        <v>122.102320302848</v>
       </c>
       <c r="AB15" t="n">
-        <v>133.1545257205</v>
+        <v>167.0657814124764</v>
       </c>
       <c r="AC15" t="n">
-        <v>120.4464446693216</v>
+        <v>151.1212577128128</v>
       </c>
       <c r="AD15" t="n">
-        <v>97317.81344952222</v>
+        <v>122102.320302848</v>
       </c>
       <c r="AE15" t="n">
-        <v>133154.5257205</v>
+        <v>167065.7814124764</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.032390553535905e-06</v>
+        <v>7.367315678381084e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>120446.4446693216</v>
+        <v>151121.2577128129</v>
       </c>
     </row>
   </sheetData>
